--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -802,6 +802,9 @@
     <t>['11', '69']</t>
   </si>
   <si>
+    <t>['47', '90+7']</t>
+  </si>
+  <si>
     <t>['5', '14', '58', '76']</t>
   </si>
   <si>
@@ -1515,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1759,7 +1762,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1950,7 +1953,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>14</v>
@@ -2332,7 +2335,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2714,7 +2717,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2905,7 +2908,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2992,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT8">
         <v>0.93</v>
@@ -3096,7 +3099,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -3377,7 +3380,7 @@
         <v>2.29</v>
       </c>
       <c r="AT10">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3478,7 +3481,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3756,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>0.93</v>
@@ -3860,7 +3863,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4051,7 +4054,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4433,7 +4436,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4624,7 +4627,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4815,7 +4818,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5006,7 +5009,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5475,7 +5478,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
         <v>0.93</v>
@@ -5579,7 +5582,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5669,7 +5672,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5770,7 +5773,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6051,7 +6054,7 @@
         <v>2.13</v>
       </c>
       <c r="AT24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>1.99</v>
@@ -6343,7 +6346,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6430,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT26">
         <v>1.87</v>
@@ -6725,7 +6728,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -7107,7 +7110,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7871,7 +7874,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -9017,7 +9020,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -9295,7 +9298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT41">
         <v>0.86</v>
@@ -9590,7 +9593,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9680,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU43">
         <v>1.56</v>
@@ -10545,7 +10548,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10635,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU48">
         <v>2.67</v>
@@ -11014,7 +11017,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -11691,7 +11694,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11882,7 +11885,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12354,7 +12357,7 @@
         <v>1.21</v>
       </c>
       <c r="AT57">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12545,7 +12548,7 @@
         <v>0.92</v>
       </c>
       <c r="AT58">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.15</v>
@@ -12646,7 +12649,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -13028,7 +13031,7 @@
         <v>126</v>
       </c>
       <c r="P61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13219,7 +13222,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13306,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT62">
         <v>0.64</v>
@@ -13792,7 +13795,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13983,7 +13986,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14174,7 +14177,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14365,7 +14368,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14556,7 +14559,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14938,7 +14941,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15601,7 +15604,7 @@
         <v>0.92</v>
       </c>
       <c r="AT74">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU74">
         <v>1.25</v>
@@ -15702,7 +15705,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15789,7 +15792,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
         <v>0.64</v>
@@ -16084,7 +16087,7 @@
         <v>98</v>
       </c>
       <c r="P77" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16275,7 +16278,7 @@
         <v>85</v>
       </c>
       <c r="P78" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16657,7 +16660,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16744,7 +16747,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT80">
         <v>0.62</v>
@@ -16848,7 +16851,7 @@
         <v>85</v>
       </c>
       <c r="P81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16938,7 +16941,7 @@
         <v>1.29</v>
       </c>
       <c r="AT81">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.2</v>
@@ -17994,7 +17997,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -18272,7 +18275,7 @@
         <v>2</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT88">
         <v>1.47</v>
@@ -18758,7 +18761,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19140,7 +19143,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19331,7 +19334,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19522,7 +19525,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19609,7 +19612,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
         <v>0.8</v>
@@ -19713,7 +19716,7 @@
         <v>91</v>
       </c>
       <c r="P96" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19994,7 +19997,7 @@
         <v>1.73</v>
       </c>
       <c r="AT97">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU97">
         <v>1.63</v>
@@ -20477,7 +20480,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20668,7 +20671,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20859,7 +20862,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21050,7 +21053,7 @@
         <v>85</v>
       </c>
       <c r="P103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21328,7 +21331,7 @@
         <v>1.17</v>
       </c>
       <c r="AS104">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT104">
         <v>0.77</v>
@@ -21623,7 +21626,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21814,7 +21817,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22578,7 +22581,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22859,7 +22862,7 @@
         <v>1.94</v>
       </c>
       <c r="AT112">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU112">
         <v>1.93</v>
@@ -23533,7 +23536,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23724,7 +23727,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23811,7 +23814,7 @@
         <v>1.75</v>
       </c>
       <c r="AS117">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT117">
         <v>1.69</v>
@@ -23915,7 +23918,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24297,7 +24300,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24387,7 +24390,7 @@
         <v>1.21</v>
       </c>
       <c r="AT120">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU120">
         <v>1.59</v>
@@ -24488,7 +24491,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24578,7 +24581,7 @@
         <v>1.29</v>
       </c>
       <c r="AT121">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU121">
         <v>1.38</v>
@@ -24870,7 +24873,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25061,7 +25064,7 @@
         <v>170</v>
       </c>
       <c r="P124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25252,7 +25255,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25443,7 +25446,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -26016,7 +26019,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26207,7 +26210,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26398,7 +26401,7 @@
         <v>113</v>
       </c>
       <c r="P131" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q131">
         <v>10</v>
@@ -26589,7 +26592,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26780,7 +26783,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27162,7 +27165,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27249,7 +27252,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT135">
         <v>1.8</v>
@@ -27825,7 +27828,7 @@
         <v>2.19</v>
       </c>
       <c r="AT138">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU138">
         <v>2.2</v>
@@ -27926,7 +27929,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28308,7 +28311,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28398,7 +28401,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU141">
         <v>1.59</v>
@@ -28499,7 +28502,7 @@
         <v>108</v>
       </c>
       <c r="P142" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28586,7 +28589,7 @@
         <v>1.33</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT142">
         <v>1.69</v>
@@ -28690,7 +28693,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28881,7 +28884,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29072,7 +29075,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29159,7 +29162,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT145">
         <v>0.62</v>
@@ -29263,7 +29266,7 @@
         <v>130</v>
       </c>
       <c r="P146" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29350,7 +29353,7 @@
         <v>1.88</v>
       </c>
       <c r="AS146">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
         <v>1.8</v>
@@ -29454,7 +29457,7 @@
         <v>189</v>
       </c>
       <c r="P147" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29645,7 +29648,7 @@
         <v>85</v>
       </c>
       <c r="P148" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29732,7 +29735,7 @@
         <v>1.38</v>
       </c>
       <c r="AS148">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT148">
         <v>1.8</v>
@@ -30218,7 +30221,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30308,7 +30311,7 @@
         <v>1.73</v>
       </c>
       <c r="AT151">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU151">
         <v>1.66</v>
@@ -30499,7 +30502,7 @@
         <v>1.94</v>
       </c>
       <c r="AT152">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU152">
         <v>1.84</v>
@@ -30791,7 +30794,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31642,10 +31645,10 @@
         <v>1.29</v>
       </c>
       <c r="AS158">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AT158">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AU158">
         <v>1.67</v>
@@ -31746,7 +31749,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -31833,7 +31836,7 @@
         <v>2.24</v>
       </c>
       <c r="AS159">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AT159">
         <v>2</v>
@@ -32128,7 +32131,7 @@
         <v>199</v>
       </c>
       <c r="P161" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32791,7 +32794,7 @@
         <v>2</v>
       </c>
       <c r="AT164">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AU164">
         <v>2.1</v>
@@ -32892,7 +32895,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q165">
         <v>11</v>
@@ -33083,7 +33086,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33465,7 +33468,7 @@
         <v>205</v>
       </c>
       <c r="P168" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33656,7 +33659,7 @@
         <v>206</v>
       </c>
       <c r="P169" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -33847,7 +33850,7 @@
         <v>85</v>
       </c>
       <c r="P170" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34038,7 +34041,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q171">
         <v>10</v>
@@ -34420,7 +34423,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34701,7 +34704,7 @@
         <v>2.19</v>
       </c>
       <c r="AT174">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU174">
         <v>2.1</v>
@@ -34892,7 +34895,7 @@
         <v>2.25</v>
       </c>
       <c r="AT175">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU175">
         <v>1.97</v>
@@ -35184,7 +35187,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q177">
         <v>10</v>
@@ -35566,7 +35569,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q179">
         <v>13</v>
@@ -35757,7 +35760,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -36035,10 +36038,10 @@
         <v>1.3</v>
       </c>
       <c r="AS181">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT181">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU181">
         <v>1.25</v>
@@ -36226,10 +36229,10 @@
         <v>0.3</v>
       </c>
       <c r="AS182">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT182">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU182">
         <v>1.58</v>
@@ -36330,7 +36333,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36521,7 +36524,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -37094,7 +37097,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37476,7 +37479,7 @@
         <v>220</v>
       </c>
       <c r="P189" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37858,7 +37861,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -38049,7 +38052,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q192">
         <v>15</v>
@@ -38431,7 +38434,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38813,7 +38816,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39195,7 +39198,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39386,7 +39389,7 @@
         <v>117</v>
       </c>
       <c r="P199" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39473,7 +39476,7 @@
         <v>1.75</v>
       </c>
       <c r="AS199">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT199">
         <v>1.87</v>
@@ -39959,7 +39962,7 @@
         <v>118</v>
       </c>
       <c r="P202" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40049,7 +40052,7 @@
         <v>1.38</v>
       </c>
       <c r="AT202">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU202">
         <v>1.34</v>
@@ -40532,7 +40535,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q205">
         <v>9</v>
@@ -41001,7 +41004,7 @@
         <v>0.82</v>
       </c>
       <c r="AS207">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT207">
         <v>0.8</v>
@@ -41105,7 +41108,7 @@
         <v>231</v>
       </c>
       <c r="P208" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q208">
         <v>8</v>
@@ -41296,7 +41299,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q209">
         <v>2</v>
@@ -41487,7 +41490,7 @@
         <v>85</v>
       </c>
       <c r="P210" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q210">
         <v>10</v>
@@ -41678,7 +41681,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41869,7 +41872,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -42060,7 +42063,7 @@
         <v>234</v>
       </c>
       <c r="P213" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -42341,7 +42344,7 @@
         <v>1.54</v>
       </c>
       <c r="AT214">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU214">
         <v>1.85</v>
@@ -42633,7 +42636,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42824,7 +42827,7 @@
         <v>85</v>
       </c>
       <c r="P217" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -43102,7 +43105,7 @@
         <v>0.73</v>
       </c>
       <c r="AS218">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT218">
         <v>0.6899999999999999</v>
@@ -43779,7 +43782,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -44060,7 +44063,7 @@
         <v>2.29</v>
       </c>
       <c r="AT223">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU223">
         <v>2</v>
@@ -44161,7 +44164,7 @@
         <v>242</v>
       </c>
       <c r="P224" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44734,7 +44737,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q227">
         <v>4</v>
@@ -44821,7 +44824,7 @@
         <v>1.77</v>
       </c>
       <c r="AS227">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT227">
         <v>1.8</v>
@@ -45015,7 +45018,7 @@
         <v>2.25</v>
       </c>
       <c r="AT228">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU228">
         <v>2</v>
@@ -45116,7 +45119,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q229">
         <v>10</v>
@@ -45498,7 +45501,7 @@
         <v>248</v>
       </c>
       <c r="P231" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q231">
         <v>-1</v>
@@ -45880,7 +45883,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q233">
         <v>2</v>
@@ -45967,7 +45970,7 @@
         <v>0.75</v>
       </c>
       <c r="AS233">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT233">
         <v>0.86</v>
@@ -46071,7 +46074,7 @@
         <v>96</v>
       </c>
       <c r="P234" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -46158,7 +46161,7 @@
         <v>1</v>
       </c>
       <c r="AS234">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT234">
         <v>0.93</v>
@@ -46262,7 +46265,7 @@
         <v>249</v>
       </c>
       <c r="P235" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q235">
         <v>4</v>
@@ -46453,7 +46456,7 @@
         <v>85</v>
       </c>
       <c r="P236" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -46644,7 +46647,7 @@
         <v>190</v>
       </c>
       <c r="P237" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -46734,7 +46737,7 @@
         <v>1.21</v>
       </c>
       <c r="AT237">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU237">
         <v>1.67</v>
@@ -46835,7 +46838,7 @@
         <v>131</v>
       </c>
       <c r="P238" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q238">
         <v>7</v>
@@ -47217,7 +47220,7 @@
         <v>144</v>
       </c>
       <c r="P240" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q240">
         <v>7</v>
@@ -47599,7 +47602,7 @@
         <v>85</v>
       </c>
       <c r="P242" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q242">
         <v>8</v>
@@ -47880,7 +47883,7 @@
         <v>1.29</v>
       </c>
       <c r="AT243">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU243">
         <v>1.4</v>
@@ -47981,7 +47984,7 @@
         <v>117</v>
       </c>
       <c r="P244" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q244">
         <v>-1</v>
@@ -48363,7 +48366,7 @@
         <v>252</v>
       </c>
       <c r="P246" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q246">
         <v>9</v>
@@ -48453,7 +48456,7 @@
         <v>2</v>
       </c>
       <c r="AT246">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU246">
         <v>2.1</v>
@@ -48554,7 +48557,7 @@
         <v>253</v>
       </c>
       <c r="P247" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48936,7 +48939,7 @@
         <v>255</v>
       </c>
       <c r="P249" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49509,7 +49512,7 @@
         <v>85</v>
       </c>
       <c r="P252" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -49700,7 +49703,7 @@
         <v>257</v>
       </c>
       <c r="P253" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q253">
         <v>-1</v>
@@ -49891,7 +49894,7 @@
         <v>141</v>
       </c>
       <c r="P254" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q254">
         <v>5</v>
@@ -50273,7 +50276,7 @@
         <v>85</v>
       </c>
       <c r="P256" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q256">
         <v>9</v>
@@ -50846,7 +50849,7 @@
         <v>261</v>
       </c>
       <c r="P259" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51179,6 +51182,388 @@
       </c>
       <c r="BK260">
         <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>4661680</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44995.92013888889</v>
+      </c>
+      <c r="F261">
+        <v>11</v>
+      </c>
+      <c r="G261" t="s">
+        <v>71</v>
+      </c>
+      <c r="H261" t="s">
+        <v>80</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>262</v>
+      </c>
+      <c r="P261" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q261">
+        <v>9</v>
+      </c>
+      <c r="R261">
+        <v>3</v>
+      </c>
+      <c r="S261">
+        <v>12</v>
+      </c>
+      <c r="T261">
+        <v>2.61</v>
+      </c>
+      <c r="U261">
+        <v>2.15</v>
+      </c>
+      <c r="V261">
+        <v>4.22</v>
+      </c>
+      <c r="W261">
+        <v>1.36</v>
+      </c>
+      <c r="X261">
+        <v>3</v>
+      </c>
+      <c r="Y261">
+        <v>2.75</v>
+      </c>
+      <c r="Z261">
+        <v>1.4</v>
+      </c>
+      <c r="AA261">
+        <v>6.5</v>
+      </c>
+      <c r="AB261">
+        <v>1.1</v>
+      </c>
+      <c r="AC261">
+        <v>2.04</v>
+      </c>
+      <c r="AD261">
+        <v>3.28</v>
+      </c>
+      <c r="AE261">
+        <v>3.38</v>
+      </c>
+      <c r="AF261">
+        <v>1.05</v>
+      </c>
+      <c r="AG261">
+        <v>9</v>
+      </c>
+      <c r="AH261">
+        <v>1.3</v>
+      </c>
+      <c r="AI261">
+        <v>3.4</v>
+      </c>
+      <c r="AJ261">
+        <v>1.88</v>
+      </c>
+      <c r="AK261">
+        <v>1.82</v>
+      </c>
+      <c r="AL261">
+        <v>1.73</v>
+      </c>
+      <c r="AM261">
+        <v>2</v>
+      </c>
+      <c r="AN261">
+        <v>1.3</v>
+      </c>
+      <c r="AO261">
+        <v>1.3</v>
+      </c>
+      <c r="AP261">
+        <v>1.72</v>
+      </c>
+      <c r="AQ261">
+        <v>1</v>
+      </c>
+      <c r="AR261">
+        <v>0.36</v>
+      </c>
+      <c r="AS261">
+        <v>1.14</v>
+      </c>
+      <c r="AT261">
+        <v>0.33</v>
+      </c>
+      <c r="AU261">
+        <v>1.28</v>
+      </c>
+      <c r="AV261">
+        <v>1.33</v>
+      </c>
+      <c r="AW261">
+        <v>2.61</v>
+      </c>
+      <c r="AX261">
+        <v>1.84</v>
+      </c>
+      <c r="AY261">
+        <v>7</v>
+      </c>
+      <c r="AZ261">
+        <v>2.43</v>
+      </c>
+      <c r="BA261">
+        <v>1.27</v>
+      </c>
+      <c r="BB261">
+        <v>1.57</v>
+      </c>
+      <c r="BC261">
+        <v>1.98</v>
+      </c>
+      <c r="BD261">
+        <v>2.4</v>
+      </c>
+      <c r="BE261">
+        <v>3.34</v>
+      </c>
+      <c r="BF261">
+        <v>7</v>
+      </c>
+      <c r="BG261">
+        <v>2</v>
+      </c>
+      <c r="BH261">
+        <v>8</v>
+      </c>
+      <c r="BI261">
+        <v>5</v>
+      </c>
+      <c r="BJ261">
+        <v>15</v>
+      </c>
+      <c r="BK261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>4661681</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>44996.00347222222</v>
+      </c>
+      <c r="F262">
+        <v>11</v>
+      </c>
+      <c r="G262" t="s">
+        <v>74</v>
+      </c>
+      <c r="H262" t="s">
+        <v>67</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
+        <v>174</v>
+      </c>
+      <c r="P262" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q262">
+        <v>2</v>
+      </c>
+      <c r="R262">
+        <v>7</v>
+      </c>
+      <c r="S262">
+        <v>9</v>
+      </c>
+      <c r="T262">
+        <v>3.4</v>
+      </c>
+      <c r="U262">
+        <v>2.05</v>
+      </c>
+      <c r="V262">
+        <v>3</v>
+      </c>
+      <c r="W262">
+        <v>1.41</v>
+      </c>
+      <c r="X262">
+        <v>2.7</v>
+      </c>
+      <c r="Y262">
+        <v>2.85</v>
+      </c>
+      <c r="Z262">
+        <v>1.37</v>
+      </c>
+      <c r="AA262">
+        <v>6.95</v>
+      </c>
+      <c r="AB262">
+        <v>1.07</v>
+      </c>
+      <c r="AC262">
+        <v>2.84</v>
+      </c>
+      <c r="AD262">
+        <v>3.27</v>
+      </c>
+      <c r="AE262">
+        <v>2.31</v>
+      </c>
+      <c r="AF262">
+        <v>1.06</v>
+      </c>
+      <c r="AG262">
+        <v>8</v>
+      </c>
+      <c r="AH262">
+        <v>1.3</v>
+      </c>
+      <c r="AI262">
+        <v>3.3</v>
+      </c>
+      <c r="AJ262">
+        <v>2</v>
+      </c>
+      <c r="AK262">
+        <v>1.8</v>
+      </c>
+      <c r="AL262">
+        <v>1.73</v>
+      </c>
+      <c r="AM262">
+        <v>2</v>
+      </c>
+      <c r="AN262">
+        <v>1.55</v>
+      </c>
+      <c r="AO262">
+        <v>1.25</v>
+      </c>
+      <c r="AP262">
+        <v>1.4</v>
+      </c>
+      <c r="AQ262">
+        <v>1.4</v>
+      </c>
+      <c r="AR262">
+        <v>1.6</v>
+      </c>
+      <c r="AS262">
+        <v>1.5</v>
+      </c>
+      <c r="AT262">
+        <v>1.5</v>
+      </c>
+      <c r="AU262">
+        <v>1.6</v>
+      </c>
+      <c r="AV262">
+        <v>1.58</v>
+      </c>
+      <c r="AW262">
+        <v>3.18</v>
+      </c>
+      <c r="AX262">
+        <v>2.13</v>
+      </c>
+      <c r="AY262">
+        <v>6.9</v>
+      </c>
+      <c r="AZ262">
+        <v>2</v>
+      </c>
+      <c r="BA262">
+        <v>1.29</v>
+      </c>
+      <c r="BB262">
+        <v>1.62</v>
+      </c>
+      <c r="BC262">
+        <v>2</v>
+      </c>
+      <c r="BD262">
+        <v>2.5</v>
+      </c>
+      <c r="BE262">
+        <v>3.75</v>
+      </c>
+      <c r="BF262">
+        <v>3</v>
+      </c>
+      <c r="BG262">
+        <v>3</v>
+      </c>
+      <c r="BH262">
+        <v>6</v>
+      </c>
+      <c r="BI262">
+        <v>16</v>
+      </c>
+      <c r="BJ262">
+        <v>9</v>
+      </c>
+      <c r="BK262">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,9 @@
     <t>['47', '90+7']</t>
   </si>
   <si>
+    <t>['25', '45+5', '48', '83']</t>
+  </si>
+  <si>
     <t>['5', '14', '58', '76']</t>
   </si>
   <si>
@@ -1157,6 +1160,9 @@
   </si>
   <si>
     <t>['31', '33', '85', '90']</t>
+  </si>
+  <si>
+    <t>['32', '79']</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK262"/>
+  <dimension ref="A1:BK266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1768,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1953,7 +1959,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>14</v>
@@ -2335,7 +2341,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2422,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT5">
         <v>0.86</v>
@@ -2717,7 +2723,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2908,7 +2914,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2998,7 +3004,7 @@
         <v>1.14</v>
       </c>
       <c r="AT8">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3099,7 +3105,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -3481,7 +3487,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3863,7 +3869,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4054,7 +4060,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4144,7 +4150,7 @@
         <v>1.85</v>
       </c>
       <c r="AT14">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4436,7 +4442,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4523,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT16">
         <v>1.69</v>
@@ -4627,7 +4633,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4717,7 +4723,7 @@
         <v>2.25</v>
       </c>
       <c r="AT17">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4818,7 +4824,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4905,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>0.38</v>
@@ -5009,7 +5015,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5481,7 +5487,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU21">
         <v>2.03</v>
@@ -5582,7 +5588,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5773,7 +5779,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5860,7 +5866,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT23">
         <v>0.86</v>
@@ -6346,7 +6352,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6624,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT27">
         <v>0.77</v>
@@ -6728,7 +6734,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6818,7 +6824,7 @@
         <v>2.29</v>
       </c>
       <c r="AT28">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU28">
         <v>1.87</v>
@@ -7009,7 +7015,7 @@
         <v>1.54</v>
       </c>
       <c r="AT29">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU29">
         <v>1.88</v>
@@ -7110,7 +7116,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7770,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>0.93</v>
@@ -7874,7 +7880,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7961,7 +7967,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT34">
         <v>0.8</v>
@@ -8155,7 +8161,7 @@
         <v>1.29</v>
       </c>
       <c r="AT35">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU35">
         <v>0.33</v>
@@ -8343,7 +8349,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT36">
         <v>0.38</v>
@@ -8537,7 +8543,7 @@
         <v>2.29</v>
       </c>
       <c r="AT37">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU37">
         <v>1.93</v>
@@ -9020,7 +9026,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -9107,7 +9113,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT40">
         <v>0.77</v>
@@ -9593,7 +9599,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -10065,7 +10071,7 @@
         <v>1.21</v>
       </c>
       <c r="AT45">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU45">
         <v>1.59</v>
@@ -10444,7 +10450,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT47">
         <v>0.64</v>
@@ -10548,7 +10554,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10635,7 +10641,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
         <v>0.33</v>
@@ -11211,7 +11217,7 @@
         <v>1.29</v>
       </c>
       <c r="AT51">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU51">
         <v>0.9399999999999999</v>
@@ -11694,7 +11700,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11784,7 +11790,7 @@
         <v>1.85</v>
       </c>
       <c r="AT54">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU54">
         <v>1.45</v>
@@ -11885,7 +11891,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -11972,7 +11978,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>0.8</v>
@@ -12354,7 +12360,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT57">
         <v>0.33</v>
@@ -12649,7 +12655,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12739,7 +12745,7 @@
         <v>2.25</v>
       </c>
       <c r="AT59">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU59">
         <v>2.17</v>
@@ -13031,7 +13037,7 @@
         <v>126</v>
       </c>
       <c r="P61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13118,7 +13124,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>0.77</v>
@@ -13222,7 +13228,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13795,7 +13801,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13986,7 +13992,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14177,7 +14183,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14368,7 +14374,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14458,7 +14464,7 @@
         <v>1.85</v>
       </c>
       <c r="AT68">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU68">
         <v>1.57</v>
@@ -14559,7 +14565,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14649,7 +14655,7 @@
         <v>1.21</v>
       </c>
       <c r="AT69">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU69">
         <v>1.79</v>
@@ -14941,7 +14947,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15028,7 +15034,7 @@
         <v>1.75</v>
       </c>
       <c r="AS71">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT71">
         <v>1.47</v>
@@ -15219,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT72">
         <v>0.93</v>
@@ -15410,7 +15416,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT73">
         <v>0.8</v>
@@ -15705,7 +15711,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15983,7 +15989,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT76">
         <v>1.87</v>
@@ -16087,7 +16093,7 @@
         <v>98</v>
       </c>
       <c r="P77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16174,7 +16180,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT77">
         <v>0.77</v>
@@ -16278,7 +16284,7 @@
         <v>85</v>
       </c>
       <c r="P78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16368,7 +16374,7 @@
         <v>2.29</v>
       </c>
       <c r="AT78">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU78">
         <v>2.07</v>
@@ -16559,7 +16565,7 @@
         <v>2.13</v>
       </c>
       <c r="AT79">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -16660,7 +16666,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16750,7 +16756,7 @@
         <v>1.14</v>
       </c>
       <c r="AT80">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU80">
         <v>1.37</v>
@@ -16851,7 +16857,7 @@
         <v>85</v>
       </c>
       <c r="P81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -17320,7 +17326,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT83">
         <v>0.8</v>
@@ -17705,7 +17711,7 @@
         <v>1.38</v>
       </c>
       <c r="AT85">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU85">
         <v>1.46</v>
@@ -17997,7 +18003,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -18469,7 +18475,7 @@
         <v>2.29</v>
       </c>
       <c r="AT89">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU89">
         <v>1.91</v>
@@ -18761,7 +18767,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18851,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -19143,7 +19149,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19334,7 +19340,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19525,7 +19531,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19716,7 +19722,7 @@
         <v>91</v>
       </c>
       <c r="P96" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19806,7 +19812,7 @@
         <v>0.92</v>
       </c>
       <c r="AT96">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU96">
         <v>1.23</v>
@@ -19994,7 +20000,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT97">
         <v>0.33</v>
@@ -20185,7 +20191,7 @@
         <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT98">
         <v>0.64</v>
@@ -20379,7 +20385,7 @@
         <v>1.54</v>
       </c>
       <c r="AT99">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU99">
         <v>1.82</v>
@@ -20480,7 +20486,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20567,7 +20573,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT100">
         <v>1.69</v>
@@ -20671,7 +20677,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20862,7 +20868,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -21053,7 +21059,7 @@
         <v>85</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21626,7 +21632,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21716,7 +21722,7 @@
         <v>1.29</v>
       </c>
       <c r="AT106">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU106">
         <v>1.23</v>
@@ -21817,7 +21823,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22289,7 +22295,7 @@
         <v>2.25</v>
       </c>
       <c r="AT109">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU109">
         <v>1.89</v>
@@ -22477,10 +22483,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT110">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU110">
         <v>1.59</v>
@@ -22581,7 +22587,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22859,7 +22865,7 @@
         <v>1.25</v>
       </c>
       <c r="AS112">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT112">
         <v>1.5</v>
@@ -23536,7 +23542,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23727,7 +23733,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23918,7 +23924,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24005,7 +24011,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT118">
         <v>1.47</v>
@@ -24300,7 +24306,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24491,7 +24497,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24873,7 +24879,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25064,7 +25070,7 @@
         <v>170</v>
       </c>
       <c r="P124" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25154,7 +25160,7 @@
         <v>1.29</v>
       </c>
       <c r="AT124">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU124">
         <v>1.24</v>
@@ -25255,7 +25261,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25342,10 +25348,10 @@
         <v>0.71</v>
       </c>
       <c r="AS125">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT125">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU125">
         <v>2.3</v>
@@ -25446,7 +25452,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25533,10 +25539,10 @@
         <v>0.6</v>
       </c>
       <c r="AS126">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT126">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU126">
         <v>1.82</v>
@@ -25915,10 +25921,10 @@
         <v>1.17</v>
       </c>
       <c r="AS128">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT128">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU128">
         <v>1.54</v>
@@ -26019,7 +26025,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26106,7 +26112,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -26210,7 +26216,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26401,7 +26407,7 @@
         <v>113</v>
       </c>
       <c r="P131" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q131">
         <v>10</v>
@@ -26592,7 +26598,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26783,7 +26789,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -27061,10 +27067,10 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT134">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU134">
         <v>1.61</v>
@@ -27165,7 +27171,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27929,7 +27935,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28311,7 +28317,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28502,7 +28508,7 @@
         <v>108</v>
       </c>
       <c r="P142" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28693,7 +28699,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28884,7 +28890,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28974,7 +28980,7 @@
         <v>1.29</v>
       </c>
       <c r="AT144">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU144">
         <v>1.27</v>
@@ -29075,7 +29081,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29165,7 +29171,7 @@
         <v>1.5</v>
       </c>
       <c r="AT145">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU145">
         <v>1.82</v>
@@ -29266,7 +29272,7 @@
         <v>130</v>
       </c>
       <c r="P146" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29356,7 +29362,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU146">
         <v>1.7</v>
@@ -29457,7 +29463,7 @@
         <v>189</v>
       </c>
       <c r="P147" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29547,7 +29553,7 @@
         <v>1.38</v>
       </c>
       <c r="AT147">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU147">
         <v>1.34</v>
@@ -29648,7 +29654,7 @@
         <v>85</v>
       </c>
       <c r="P148" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -30117,7 +30123,7 @@
         <v>1.13</v>
       </c>
       <c r="AS150">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT150">
         <v>0.64</v>
@@ -30221,7 +30227,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30308,7 +30314,7 @@
         <v>1.29</v>
       </c>
       <c r="AS151">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT151">
         <v>1.5</v>
@@ -30499,7 +30505,7 @@
         <v>0.25</v>
       </c>
       <c r="AS152">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT152">
         <v>0.33</v>
@@ -30693,7 +30699,7 @@
         <v>2.13</v>
       </c>
       <c r="AT153">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU153">
         <v>1.94</v>
@@ -30794,7 +30800,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31072,7 +31078,7 @@
         <v>1.12</v>
       </c>
       <c r="AS155">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AT155">
         <v>0.96</v>
@@ -31263,10 +31269,10 @@
         <v>1.29</v>
       </c>
       <c r="AS156">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT156">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AU156">
         <v>1.63</v>
@@ -31454,7 +31460,7 @@
         <v>1.12</v>
       </c>
       <c r="AS157">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT157">
         <v>1.07</v>
@@ -31749,7 +31755,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -31839,7 +31845,7 @@
         <v>1.16</v>
       </c>
       <c r="AT159">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AU159">
         <v>1.67</v>
@@ -32027,7 +32033,7 @@
         <v>2.06</v>
       </c>
       <c r="AS160">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT160">
         <v>2.06</v>
@@ -32131,7 +32137,7 @@
         <v>199</v>
       </c>
       <c r="P161" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32218,7 +32224,7 @@
         <v>1.94</v>
       </c>
       <c r="AS161">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT161">
         <v>1.55</v>
@@ -32409,7 +32415,7 @@
         <v>1.88</v>
       </c>
       <c r="AS162">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AT162">
         <v>2</v>
@@ -32603,7 +32609,7 @@
         <v>2.06</v>
       </c>
       <c r="AT163">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AU163">
         <v>1.85</v>
@@ -32791,7 +32797,7 @@
         <v>1.21</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AT164">
         <v>1.16</v>
@@ -32895,7 +32901,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q165">
         <v>11</v>
@@ -32985,7 +32991,7 @@
         <v>1.55</v>
       </c>
       <c r="AT165">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AU165">
         <v>1.85</v>
@@ -33086,7 +33092,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33176,7 +33182,7 @@
         <v>2</v>
       </c>
       <c r="AT166">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AU166">
         <v>2.08</v>
@@ -33364,10 +33370,10 @@
         <v>2.32</v>
       </c>
       <c r="AS167">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT167">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AU167">
         <v>1.81</v>
@@ -33468,7 +33474,7 @@
         <v>205</v>
       </c>
       <c r="P168" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33659,7 +33665,7 @@
         <v>206</v>
       </c>
       <c r="P169" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -33746,10 +33752,10 @@
         <v>1.86</v>
       </c>
       <c r="AS169">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AT169">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AU169">
         <v>2.08</v>
@@ -33850,7 +33856,7 @@
         <v>85</v>
       </c>
       <c r="P170" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34041,7 +34047,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q171">
         <v>10</v>
@@ -34128,7 +34134,7 @@
         <v>1.95</v>
       </c>
       <c r="AS171">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AT171">
         <v>2</v>
@@ -34322,7 +34328,7 @@
         <v>2</v>
       </c>
       <c r="AT172">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AU172">
         <v>2.01</v>
@@ -34423,7 +34429,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -35187,7 +35193,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q177">
         <v>10</v>
@@ -35569,7 +35575,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q179">
         <v>13</v>
@@ -35760,7 +35766,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35847,10 +35853,10 @@
         <v>0.89</v>
       </c>
       <c r="AS180">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT180">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU180">
         <v>1.44</v>
@@ -36333,7 +36339,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36420,7 +36426,7 @@
         <v>1.64</v>
       </c>
       <c r="AS183">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT183">
         <v>1.87</v>
@@ -36524,7 +36530,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -36611,10 +36617,10 @@
         <v>1.91</v>
       </c>
       <c r="AS184">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT184">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU184">
         <v>1.8</v>
@@ -36996,7 +37002,7 @@
         <v>2.13</v>
       </c>
       <c r="AT186">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU186">
         <v>1.87</v>
@@ -37097,7 +37103,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37184,7 +37190,7 @@
         <v>1.64</v>
       </c>
       <c r="AS187">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT187">
         <v>1.69</v>
@@ -37479,7 +37485,7 @@
         <v>220</v>
       </c>
       <c r="P189" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37861,7 +37867,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -38052,7 +38058,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q192">
         <v>15</v>
@@ -38434,7 +38440,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38715,7 +38721,7 @@
         <v>1.21</v>
       </c>
       <c r="AT195">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU195">
         <v>1.73</v>
@@ -38816,7 +38822,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39198,7 +39204,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39285,7 +39291,7 @@
         <v>1.1</v>
       </c>
       <c r="AS198">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT198">
         <v>0.93</v>
@@ -39389,7 +39395,7 @@
         <v>117</v>
       </c>
       <c r="P199" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39670,7 +39676,7 @@
         <v>1.29</v>
       </c>
       <c r="AT200">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU200">
         <v>1.54</v>
@@ -39858,7 +39864,7 @@
         <v>1.3</v>
       </c>
       <c r="AS201">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT201">
         <v>1</v>
@@ -39962,7 +39968,7 @@
         <v>118</v>
       </c>
       <c r="P202" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40243,7 +40249,7 @@
         <v>2.19</v>
       </c>
       <c r="AT203">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU203">
         <v>2.16</v>
@@ -40431,10 +40437,10 @@
         <v>0.73</v>
       </c>
       <c r="AS204">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT204">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU204">
         <v>1.79</v>
@@ -40535,7 +40541,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q205">
         <v>9</v>
@@ -40813,7 +40819,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT206">
         <v>1.47</v>
@@ -41108,7 +41114,7 @@
         <v>231</v>
       </c>
       <c r="P208" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q208">
         <v>8</v>
@@ -41299,7 +41305,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q209">
         <v>2</v>
@@ -41490,7 +41496,7 @@
         <v>85</v>
       </c>
       <c r="P210" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q210">
         <v>10</v>
@@ -41681,7 +41687,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41768,7 +41774,7 @@
         <v>1.5</v>
       </c>
       <c r="AS211">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT211">
         <v>1.8</v>
@@ -41872,7 +41878,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41962,7 +41968,7 @@
         <v>2.13</v>
       </c>
       <c r="AT212">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU212">
         <v>2</v>
@@ -42063,7 +42069,7 @@
         <v>234</v>
       </c>
       <c r="P213" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -42636,7 +42642,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42726,7 +42732,7 @@
         <v>1</v>
       </c>
       <c r="AT216">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU216">
         <v>1.76</v>
@@ -42827,7 +42833,7 @@
         <v>85</v>
       </c>
       <c r="P217" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -42914,7 +42920,7 @@
         <v>1.85</v>
       </c>
       <c r="AS217">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT217">
         <v>1.87</v>
@@ -43108,7 +43114,7 @@
         <v>1.5</v>
       </c>
       <c r="AT218">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU218">
         <v>1.59</v>
@@ -43782,7 +43788,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -43869,10 +43875,10 @@
         <v>0.5</v>
       </c>
       <c r="AS222">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT222">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU222">
         <v>2.1</v>
@@ -44164,7 +44170,7 @@
         <v>242</v>
       </c>
       <c r="P224" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44251,7 +44257,7 @@
         <v>0.82</v>
       </c>
       <c r="AS224">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT224">
         <v>0.86</v>
@@ -44633,7 +44639,7 @@
         <v>0.92</v>
       </c>
       <c r="AS226">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT226">
         <v>0.8</v>
@@ -44737,7 +44743,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q227">
         <v>4</v>
@@ -44827,7 +44833,7 @@
         <v>1.14</v>
       </c>
       <c r="AT227">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU227">
         <v>1.25</v>
@@ -45119,7 +45125,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q229">
         <v>10</v>
@@ -45400,7 +45406,7 @@
         <v>1.29</v>
       </c>
       <c r="AT230">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU230">
         <v>1.43</v>
@@ -45501,7 +45507,7 @@
         <v>248</v>
       </c>
       <c r="P231" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q231">
         <v>-1</v>
@@ -45782,7 +45788,7 @@
         <v>1.38</v>
       </c>
       <c r="AT232">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AU232">
         <v>1.54</v>
@@ -45883,7 +45889,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q233">
         <v>2</v>
@@ -46074,7 +46080,7 @@
         <v>96</v>
       </c>
       <c r="P234" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -46265,7 +46271,7 @@
         <v>249</v>
       </c>
       <c r="P235" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q235">
         <v>4</v>
@@ -46456,7 +46462,7 @@
         <v>85</v>
       </c>
       <c r="P236" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -46543,7 +46549,7 @@
         <v>1.62</v>
       </c>
       <c r="AS236">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT236">
         <v>1.8</v>
@@ -46647,7 +46653,7 @@
         <v>190</v>
       </c>
       <c r="P237" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -46838,7 +46844,7 @@
         <v>131</v>
       </c>
       <c r="P238" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q238">
         <v>7</v>
@@ -46928,7 +46934,7 @@
         <v>1</v>
       </c>
       <c r="AT238">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU238">
         <v>1.73</v>
@@ -47220,7 +47226,7 @@
         <v>144</v>
       </c>
       <c r="P240" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q240">
         <v>7</v>
@@ -47498,7 +47504,7 @@
         <v>0.36</v>
       </c>
       <c r="AS241">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT241">
         <v>0.38</v>
@@ -47602,7 +47608,7 @@
         <v>85</v>
       </c>
       <c r="P242" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q242">
         <v>8</v>
@@ -47984,7 +47990,7 @@
         <v>117</v>
       </c>
       <c r="P244" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q244">
         <v>-1</v>
@@ -48074,7 +48080,7 @@
         <v>0.92</v>
       </c>
       <c r="AT244">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU244">
         <v>1.29</v>
@@ -48262,7 +48268,7 @@
         <v>0.92</v>
       </c>
       <c r="AS245">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT245">
         <v>0.8</v>
@@ -48366,7 +48372,7 @@
         <v>252</v>
       </c>
       <c r="P246" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q246">
         <v>9</v>
@@ -48453,7 +48459,7 @@
         <v>1.5</v>
       </c>
       <c r="AS246">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT246">
         <v>1.5</v>
@@ -48557,7 +48563,7 @@
         <v>253</v>
       </c>
       <c r="P247" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48644,10 +48650,10 @@
         <v>1.86</v>
       </c>
       <c r="AS247">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT247">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU247">
         <v>1.45</v>
@@ -48835,7 +48841,7 @@
         <v>1.17</v>
       </c>
       <c r="AS248">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT248">
         <v>1</v>
@@ -48939,7 +48945,7 @@
         <v>255</v>
       </c>
       <c r="P249" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49512,7 +49518,7 @@
         <v>85</v>
       </c>
       <c r="P252" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -49703,7 +49709,7 @@
         <v>257</v>
       </c>
       <c r="P253" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q253">
         <v>-1</v>
@@ -49894,7 +49900,7 @@
         <v>141</v>
       </c>
       <c r="P254" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q254">
         <v>5</v>
@@ -50276,7 +50282,7 @@
         <v>85</v>
       </c>
       <c r="P256" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q256">
         <v>9</v>
@@ -50849,7 +50855,7 @@
         <v>261</v>
       </c>
       <c r="P259" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -51564,6 +51570,770 @@
       </c>
       <c r="BK262">
         <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>4661682</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>44996.83333333334</v>
+      </c>
+      <c r="F263">
+        <v>11</v>
+      </c>
+      <c r="G263" t="s">
+        <v>82</v>
+      </c>
+      <c r="H263" t="s">
+        <v>76</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>1</v>
+      </c>
+      <c r="O263" t="s">
+        <v>85</v>
+      </c>
+      <c r="P263" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q263">
+        <v>7</v>
+      </c>
+      <c r="R263">
+        <v>3</v>
+      </c>
+      <c r="S263">
+        <v>10</v>
+      </c>
+      <c r="T263">
+        <v>2.95</v>
+      </c>
+      <c r="U263">
+        <v>2.05</v>
+      </c>
+      <c r="V263">
+        <v>3.4</v>
+      </c>
+      <c r="W263">
+        <v>1.41</v>
+      </c>
+      <c r="X263">
+        <v>2.65</v>
+      </c>
+      <c r="Y263">
+        <v>2.8</v>
+      </c>
+      <c r="Z263">
+        <v>1.38</v>
+      </c>
+      <c r="AA263">
+        <v>7.25</v>
+      </c>
+      <c r="AB263">
+        <v>1.08</v>
+      </c>
+      <c r="AC263">
+        <v>2.41</v>
+      </c>
+      <c r="AD263">
+        <v>3.17</v>
+      </c>
+      <c r="AE263">
+        <v>2.78</v>
+      </c>
+      <c r="AF263">
+        <v>1.06</v>
+      </c>
+      <c r="AG263">
+        <v>8</v>
+      </c>
+      <c r="AH263">
+        <v>1.33</v>
+      </c>
+      <c r="AI263">
+        <v>3.25</v>
+      </c>
+      <c r="AJ263">
+        <v>1.9</v>
+      </c>
+      <c r="AK263">
+        <v>1.77</v>
+      </c>
+      <c r="AL263">
+        <v>1.73</v>
+      </c>
+      <c r="AM263">
+        <v>1.95</v>
+      </c>
+      <c r="AN263">
+        <v>1.38</v>
+      </c>
+      <c r="AO263">
+        <v>1.32</v>
+      </c>
+      <c r="AP263">
+        <v>1.55</v>
+      </c>
+      <c r="AQ263">
+        <v>1.21</v>
+      </c>
+      <c r="AR263">
+        <v>0.93</v>
+      </c>
+      <c r="AS263">
+        <v>1.13</v>
+      </c>
+      <c r="AT263">
+        <v>1.07</v>
+      </c>
+      <c r="AU263">
+        <v>1.45</v>
+      </c>
+      <c r="AV263">
+        <v>1.32</v>
+      </c>
+      <c r="AW263">
+        <v>2.77</v>
+      </c>
+      <c r="AX263">
+        <v>1.95</v>
+      </c>
+      <c r="AY263">
+        <v>5.5</v>
+      </c>
+      <c r="AZ263">
+        <v>2.05</v>
+      </c>
+      <c r="BA263">
+        <v>1.32</v>
+      </c>
+      <c r="BB263">
+        <v>1.6</v>
+      </c>
+      <c r="BC263">
+        <v>2.05</v>
+      </c>
+      <c r="BD263">
+        <v>2.75</v>
+      </c>
+      <c r="BE263">
+        <v>4</v>
+      </c>
+      <c r="BF263">
+        <v>5</v>
+      </c>
+      <c r="BG263">
+        <v>6</v>
+      </c>
+      <c r="BH263">
+        <v>11</v>
+      </c>
+      <c r="BI263">
+        <v>9</v>
+      </c>
+      <c r="BJ263">
+        <v>16</v>
+      </c>
+      <c r="BK263">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>4661683</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>44996.92013888889</v>
+      </c>
+      <c r="F264">
+        <v>11</v>
+      </c>
+      <c r="G264" t="s">
+        <v>77</v>
+      </c>
+      <c r="H264" t="s">
+        <v>70</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>1</v>
+      </c>
+      <c r="O264" t="s">
+        <v>133</v>
+      </c>
+      <c r="P264" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q264">
+        <v>6</v>
+      </c>
+      <c r="R264">
+        <v>1</v>
+      </c>
+      <c r="S264">
+        <v>7</v>
+      </c>
+      <c r="T264">
+        <v>2.55</v>
+      </c>
+      <c r="U264">
+        <v>2.1</v>
+      </c>
+      <c r="V264">
+        <v>3.9</v>
+      </c>
+      <c r="W264">
+        <v>1.36</v>
+      </c>
+      <c r="X264">
+        <v>2.87</v>
+      </c>
+      <c r="Y264">
+        <v>2.6</v>
+      </c>
+      <c r="Z264">
+        <v>1.43</v>
+      </c>
+      <c r="AA264">
+        <v>6.5</v>
+      </c>
+      <c r="AB264">
+        <v>1.1</v>
+      </c>
+      <c r="AC264">
+        <v>1.96</v>
+      </c>
+      <c r="AD264">
+        <v>3.37</v>
+      </c>
+      <c r="AE264">
+        <v>3.53</v>
+      </c>
+      <c r="AF264">
+        <v>1.05</v>
+      </c>
+      <c r="AG264">
+        <v>9.5</v>
+      </c>
+      <c r="AH264">
+        <v>1.26</v>
+      </c>
+      <c r="AI264">
+        <v>3.5</v>
+      </c>
+      <c r="AJ264">
+        <v>1.8</v>
+      </c>
+      <c r="AK264">
+        <v>2</v>
+      </c>
+      <c r="AL264">
+        <v>1.68</v>
+      </c>
+      <c r="AM264">
+        <v>2.05</v>
+      </c>
+      <c r="AN264">
+        <v>1.27</v>
+      </c>
+      <c r="AO264">
+        <v>1.29</v>
+      </c>
+      <c r="AP264">
+        <v>1.77</v>
+      </c>
+      <c r="AQ264">
+        <v>1.73</v>
+      </c>
+      <c r="AR264">
+        <v>0.62</v>
+      </c>
+      <c r="AS264">
+        <v>1.81</v>
+      </c>
+      <c r="AT264">
+        <v>0.57</v>
+      </c>
+      <c r="AU264">
+        <v>1.59</v>
+      </c>
+      <c r="AV264">
+        <v>1.7</v>
+      </c>
+      <c r="AW264">
+        <v>3.29</v>
+      </c>
+      <c r="AX264">
+        <v>1.62</v>
+      </c>
+      <c r="AY264">
+        <v>5.75</v>
+      </c>
+      <c r="AZ264">
+        <v>2.6</v>
+      </c>
+      <c r="BA264">
+        <v>1.24</v>
+      </c>
+      <c r="BB264">
+        <v>1.46</v>
+      </c>
+      <c r="BC264">
+        <v>1.85</v>
+      </c>
+      <c r="BD264">
+        <v>2.4</v>
+      </c>
+      <c r="BE264">
+        <v>3.3</v>
+      </c>
+      <c r="BF264">
+        <v>4</v>
+      </c>
+      <c r="BG264">
+        <v>2</v>
+      </c>
+      <c r="BH264">
+        <v>9</v>
+      </c>
+      <c r="BI264">
+        <v>4</v>
+      </c>
+      <c r="BJ264">
+        <v>13</v>
+      </c>
+      <c r="BK264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>4661684</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>44997.00694444445</v>
+      </c>
+      <c r="F265">
+        <v>11</v>
+      </c>
+      <c r="G265" t="s">
+        <v>68</v>
+      </c>
+      <c r="H265" t="s">
+        <v>69</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>85</v>
+      </c>
+      <c r="P265" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q265">
+        <v>3</v>
+      </c>
+      <c r="R265">
+        <v>3</v>
+      </c>
+      <c r="S265">
+        <v>6</v>
+      </c>
+      <c r="T265">
+        <v>2.87</v>
+      </c>
+      <c r="U265">
+        <v>2.1</v>
+      </c>
+      <c r="V265">
+        <v>3.4</v>
+      </c>
+      <c r="W265">
+        <v>1.37</v>
+      </c>
+      <c r="X265">
+        <v>2.85</v>
+      </c>
+      <c r="Y265">
+        <v>2.6</v>
+      </c>
+      <c r="Z265">
+        <v>1.42</v>
+      </c>
+      <c r="AA265">
+        <v>6.5</v>
+      </c>
+      <c r="AB265">
+        <v>1.09</v>
+      </c>
+      <c r="AC265">
+        <v>2.28</v>
+      </c>
+      <c r="AD265">
+        <v>3.25</v>
+      </c>
+      <c r="AE265">
+        <v>2.9</v>
+      </c>
+      <c r="AF265">
+        <v>1.05</v>
+      </c>
+      <c r="AG265">
+        <v>9.25</v>
+      </c>
+      <c r="AH265">
+        <v>1.27</v>
+      </c>
+      <c r="AI265">
+        <v>3.4</v>
+      </c>
+      <c r="AJ265">
+        <v>1.83</v>
+      </c>
+      <c r="AK265">
+        <v>1.97</v>
+      </c>
+      <c r="AL265">
+        <v>1.66</v>
+      </c>
+      <c r="AM265">
+        <v>2.05</v>
+      </c>
+      <c r="AN265">
+        <v>1.38</v>
+      </c>
+      <c r="AO265">
+        <v>1.31</v>
+      </c>
+      <c r="AP265">
+        <v>1.57</v>
+      </c>
+      <c r="AQ265">
+        <v>2</v>
+      </c>
+      <c r="AR265">
+        <v>1.8</v>
+      </c>
+      <c r="AS265">
+        <v>1.88</v>
+      </c>
+      <c r="AT265">
+        <v>1.88</v>
+      </c>
+      <c r="AU265">
+        <v>2.1</v>
+      </c>
+      <c r="AV265">
+        <v>1.87</v>
+      </c>
+      <c r="AW265">
+        <v>3.97</v>
+      </c>
+      <c r="AX265">
+        <v>1.74</v>
+      </c>
+      <c r="AY265">
+        <v>5.75</v>
+      </c>
+      <c r="AZ265">
+        <v>2.4</v>
+      </c>
+      <c r="BA265">
+        <v>1.24</v>
+      </c>
+      <c r="BB265">
+        <v>1.46</v>
+      </c>
+      <c r="BC265">
+        <v>1.93</v>
+      </c>
+      <c r="BD265">
+        <v>2.37</v>
+      </c>
+      <c r="BE265">
+        <v>3.3</v>
+      </c>
+      <c r="BF265">
+        <v>4</v>
+      </c>
+      <c r="BG265">
+        <v>6</v>
+      </c>
+      <c r="BH265">
+        <v>5</v>
+      </c>
+      <c r="BI265">
+        <v>7</v>
+      </c>
+      <c r="BJ265">
+        <v>9</v>
+      </c>
+      <c r="BK265">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>4661685</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>44997.625</v>
+      </c>
+      <c r="F266">
+        <v>11</v>
+      </c>
+      <c r="G266" t="s">
+        <v>79</v>
+      </c>
+      <c r="H266" t="s">
+        <v>65</v>
+      </c>
+      <c r="I266">
+        <v>2</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>3</v>
+      </c>
+      <c r="L266">
+        <v>4</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>5</v>
+      </c>
+      <c r="O266" t="s">
+        <v>263</v>
+      </c>
+      <c r="P266" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q266">
+        <v>-1</v>
+      </c>
+      <c r="R266">
+        <v>-1</v>
+      </c>
+      <c r="S266">
+        <v>-1</v>
+      </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
+      <c r="U266">
+        <v>0</v>
+      </c>
+      <c r="V266">
+        <v>0</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
+      <c r="AB266">
+        <v>0</v>
+      </c>
+      <c r="AC266">
+        <v>0</v>
+      </c>
+      <c r="AD266">
+        <v>0</v>
+      </c>
+      <c r="AE266">
+        <v>0</v>
+      </c>
+      <c r="AF266">
+        <v>0</v>
+      </c>
+      <c r="AG266">
+        <v>0</v>
+      </c>
+      <c r="AH266">
+        <v>0</v>
+      </c>
+      <c r="AI266">
+        <v>0</v>
+      </c>
+      <c r="AJ266">
+        <v>0</v>
+      </c>
+      <c r="AK266">
+        <v>0</v>
+      </c>
+      <c r="AL266">
+        <v>0</v>
+      </c>
+      <c r="AM266">
+        <v>0</v>
+      </c>
+      <c r="AN266">
+        <v>0</v>
+      </c>
+      <c r="AO266">
+        <v>0</v>
+      </c>
+      <c r="AP266">
+        <v>0</v>
+      </c>
+      <c r="AQ266">
+        <v>1.94</v>
+      </c>
+      <c r="AR266">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS266">
+        <v>2</v>
+      </c>
+      <c r="AT266">
+        <v>0.64</v>
+      </c>
+      <c r="AU266">
+        <v>1.86</v>
+      </c>
+      <c r="AV266">
+        <v>0.86</v>
+      </c>
+      <c r="AW266">
+        <v>2.72</v>
+      </c>
+      <c r="AX266">
+        <v>0</v>
+      </c>
+      <c r="AY266">
+        <v>0</v>
+      </c>
+      <c r="AZ266">
+        <v>0</v>
+      </c>
+      <c r="BA266">
+        <v>0</v>
+      </c>
+      <c r="BB266">
+        <v>0</v>
+      </c>
+      <c r="BC266">
+        <v>0</v>
+      </c>
+      <c r="BD266">
+        <v>0</v>
+      </c>
+      <c r="BE266">
+        <v>0</v>
+      </c>
+      <c r="BF266">
+        <v>-1</v>
+      </c>
+      <c r="BG266">
+        <v>-1</v>
+      </c>
+      <c r="BH266">
+        <v>-1</v>
+      </c>
+      <c r="BI266">
+        <v>-1</v>
+      </c>
+      <c r="BJ266">
+        <v>-1</v>
+      </c>
+      <c r="BK266">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="387">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,12 @@
     <t>['25', '45+5', '48', '83']</t>
   </si>
   <si>
+    <t>['45', '52', '74']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['5', '14', '58', '76']</t>
   </si>
   <si>
@@ -1015,9 +1021,6 @@
     <t>['54', '58', '85']</t>
   </si>
   <si>
-    <t>['68']</t>
-  </si>
-  <si>
     <t>['67', '90+2']</t>
   </si>
   <si>
@@ -1163,6 +1166,15 @@
   </si>
   <si>
     <t>['32', '79']</t>
+  </si>
+  <si>
+    <t>['17', '53']</t>
+  </si>
+  <si>
+    <t>['45+4', '60']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK266"/>
+  <dimension ref="A1:BK269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1768,7 +1780,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1959,7 +1971,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q3">
         <v>14</v>
@@ -2341,7 +2353,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2723,7 +2735,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2813,7 +2825,7 @@
         <v>1.21</v>
       </c>
       <c r="AT7">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2914,7 +2926,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -3105,7 +3117,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -3192,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT9">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3383,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT10">
         <v>0.33</v>
@@ -3487,7 +3499,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3869,7 +3881,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4060,7 +4072,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -4442,7 +4454,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4633,7 +4645,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4824,7 +4836,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5015,7 +5027,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5105,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5588,7 +5600,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q22">
         <v>9</v>
@@ -5675,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT22">
         <v>0.33</v>
@@ -5779,7 +5791,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6057,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT24">
         <v>1.5</v>
@@ -6251,7 +6263,7 @@
         <v>1.21</v>
       </c>
       <c r="AT25">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
         <v>1.68</v>
@@ -6352,7 +6364,7 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6442,7 +6454,7 @@
         <v>1.14</v>
       </c>
       <c r="AT26">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU26">
         <v>1.55</v>
@@ -6633,7 +6645,7 @@
         <v>1.88</v>
       </c>
       <c r="AT27">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU27">
         <v>2.13</v>
@@ -6734,7 +6746,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6821,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT28">
         <v>0.64</v>
@@ -7116,7 +7128,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7206,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -7880,7 +7892,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8540,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT37">
         <v>0.57</v>
@@ -8731,7 +8743,7 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT38">
         <v>1.8</v>
@@ -9026,7 +9038,7 @@
         <v>109</v>
       </c>
       <c r="P40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -9116,7 +9128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT40">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU40">
         <v>1.67</v>
@@ -9599,7 +9611,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -10259,7 +10271,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT46">
         <v>1.47</v>
@@ -10453,7 +10465,7 @@
         <v>1.81</v>
       </c>
       <c r="AT47">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.67</v>
@@ -10554,7 +10566,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11408,7 +11420,7 @@
         <v>1.21</v>
       </c>
       <c r="AT52">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU52">
         <v>1.69</v>
@@ -11596,7 +11608,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT53">
         <v>0.38</v>
@@ -11700,7 +11712,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11891,7 +11903,7 @@
         <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q55">
         <v>8</v>
@@ -12169,7 +12181,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -12655,7 +12667,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12933,7 +12945,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT60">
         <v>0.86</v>
@@ -13037,7 +13049,7 @@
         <v>126</v>
       </c>
       <c r="P61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q61">
         <v>12</v>
@@ -13127,7 +13139,7 @@
         <v>2</v>
       </c>
       <c r="AT61">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU61">
         <v>2.03</v>
@@ -13228,7 +13240,7 @@
         <v>127</v>
       </c>
       <c r="P62" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13318,7 +13330,7 @@
         <v>1.14</v>
       </c>
       <c r="AT62">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU62">
         <v>1.28</v>
@@ -13506,7 +13518,7 @@
         <v>3</v>
       </c>
       <c r="AS63">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT63">
         <v>1.8</v>
@@ -13801,7 +13813,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13992,7 +14004,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -14082,7 +14094,7 @@
         <v>1.29</v>
       </c>
       <c r="AT66">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU66">
         <v>1.16</v>
@@ -14183,7 +14195,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14374,7 +14386,7 @@
         <v>85</v>
       </c>
       <c r="P68" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14565,7 +14577,7 @@
         <v>85</v>
       </c>
       <c r="P69" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14947,7 +14959,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15711,7 +15723,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15801,7 +15813,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.88</v>
@@ -15992,7 +16004,7 @@
         <v>2</v>
       </c>
       <c r="AT76">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU76">
         <v>2.31</v>
@@ -16093,7 +16105,7 @@
         <v>98</v>
       </c>
       <c r="P77" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16183,7 +16195,7 @@
         <v>1.81</v>
       </c>
       <c r="AT77">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU77">
         <v>1.59</v>
@@ -16284,7 +16296,7 @@
         <v>85</v>
       </c>
       <c r="P78" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16371,7 +16383,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT78">
         <v>1.88</v>
@@ -16562,7 +16574,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT79">
         <v>1.07</v>
@@ -16666,7 +16678,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16857,7 +16869,7 @@
         <v>85</v>
       </c>
       <c r="P81" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -17138,7 +17150,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU82">
         <v>1.75</v>
@@ -17708,7 +17720,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT85">
         <v>0.64</v>
@@ -18003,7 +18015,7 @@
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -18472,7 +18484,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT89">
         <v>1.07</v>
@@ -18666,7 +18678,7 @@
         <v>1.54</v>
       </c>
       <c r="AT90">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU90">
         <v>1.9</v>
@@ -18767,7 +18779,7 @@
         <v>85</v>
       </c>
       <c r="P91" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19149,7 +19161,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19236,7 +19248,7 @@
         <v>0.4</v>
       </c>
       <c r="AS93">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT93">
         <v>0.38</v>
@@ -19340,7 +19352,7 @@
         <v>85</v>
       </c>
       <c r="P94" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q94">
         <v>7</v>
@@ -19531,7 +19543,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19722,7 +19734,7 @@
         <v>91</v>
       </c>
       <c r="P96" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20194,7 +20206,7 @@
         <v>1.88</v>
       </c>
       <c r="AT98">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>2.35</v>
@@ -20486,7 +20498,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20677,7 +20689,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20868,7 +20880,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20955,7 +20967,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -21059,7 +21071,7 @@
         <v>85</v>
       </c>
       <c r="P103" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21149,7 +21161,7 @@
         <v>1.29</v>
       </c>
       <c r="AT103">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU103">
         <v>1.38</v>
@@ -21340,7 +21352,7 @@
         <v>1.14</v>
       </c>
       <c r="AT104">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -21632,7 +21644,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q106">
         <v>1</v>
@@ -21823,7 +21835,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21910,7 +21922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT107">
         <v>0.86</v>
@@ -22101,7 +22113,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT108">
         <v>0.93</v>
@@ -22587,7 +22599,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23247,10 +23259,10 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT114">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU114">
         <v>1.89</v>
@@ -23542,7 +23554,7 @@
         <v>163</v>
       </c>
       <c r="P116" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23733,7 +23745,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23924,7 +23936,7 @@
         <v>165</v>
       </c>
       <c r="P118" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24306,7 +24318,7 @@
         <v>167</v>
       </c>
       <c r="P120" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24497,7 +24509,7 @@
         <v>168</v>
       </c>
       <c r="P121" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24775,10 +24787,10 @@
         <v>1.75</v>
       </c>
       <c r="AS122">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT122">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU122">
         <v>1.36</v>
@@ -24879,7 +24891,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25070,7 +25082,7 @@
         <v>170</v>
       </c>
       <c r="P124" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25261,7 +25273,7 @@
         <v>85</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>9</v>
@@ -25452,7 +25464,7 @@
         <v>171</v>
       </c>
       <c r="P126" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -26025,7 +26037,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26216,7 +26228,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -26303,10 +26315,10 @@
         <v>1.14</v>
       </c>
       <c r="AS130">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT130">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU130">
         <v>2.04</v>
@@ -26407,7 +26419,7 @@
         <v>113</v>
       </c>
       <c r="P131" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q131">
         <v>10</v>
@@ -26598,7 +26610,7 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q132">
         <v>11</v>
@@ -26789,7 +26801,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26876,7 +26888,7 @@
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT133">
         <v>1.69</v>
@@ -27171,7 +27183,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27935,7 +27947,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28213,7 +28225,7 @@
         <v>1.14</v>
       </c>
       <c r="AS140">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT140">
         <v>0.8</v>
@@ -28317,7 +28329,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28508,7 +28520,7 @@
         <v>108</v>
       </c>
       <c r="P142" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28699,7 +28711,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28789,7 +28801,7 @@
         <v>1.29</v>
       </c>
       <c r="AT143">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU143">
         <v>1.41</v>
@@ -28890,7 +28902,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29081,7 +29093,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29272,7 +29284,7 @@
         <v>130</v>
       </c>
       <c r="P146" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29463,7 +29475,7 @@
         <v>189</v>
       </c>
       <c r="P147" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29550,7 +29562,7 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT147">
         <v>0.57</v>
@@ -29654,7 +29666,7 @@
         <v>85</v>
       </c>
       <c r="P148" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -30126,7 +30138,7 @@
         <v>1.13</v>
       </c>
       <c r="AT150">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU150">
         <v>1.5</v>
@@ -30227,7 +30239,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30696,7 +30708,7 @@
         <v>1</v>
       </c>
       <c r="AS153">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT153">
         <v>0.64</v>
@@ -30800,7 +30812,7 @@
         <v>194</v>
       </c>
       <c r="P154" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30890,7 +30902,7 @@
         <v>1.85</v>
       </c>
       <c r="AT154">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU154">
         <v>1.56</v>
@@ -31081,7 +31093,7 @@
         <v>1.84</v>
       </c>
       <c r="AT155">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="AU155">
         <v>2.21</v>
@@ -31755,7 +31767,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -32036,7 +32048,7 @@
         <v>1.37</v>
       </c>
       <c r="AT160">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AU160">
         <v>1.62</v>
@@ -32137,7 +32149,7 @@
         <v>199</v>
       </c>
       <c r="P161" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32227,7 +32239,7 @@
         <v>1.74</v>
       </c>
       <c r="AT161">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AU161">
         <v>1.78</v>
@@ -32418,7 +32430,7 @@
         <v>1.84</v>
       </c>
       <c r="AT162">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU162">
         <v>2.12</v>
@@ -32606,7 +32618,7 @@
         <v>1.47</v>
       </c>
       <c r="AS163">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AT163">
         <v>1.37</v>
@@ -32901,7 +32913,7 @@
         <v>202</v>
       </c>
       <c r="P165" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q165">
         <v>11</v>
@@ -32988,7 +33000,7 @@
         <v>1.74</v>
       </c>
       <c r="AS165">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AT165">
         <v>1.74</v>
@@ -33092,7 +33104,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33179,7 +33191,7 @@
         <v>1.89</v>
       </c>
       <c r="AS166">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT166">
         <v>1.84</v>
@@ -33474,7 +33486,7 @@
         <v>205</v>
       </c>
       <c r="P168" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33561,10 +33573,10 @@
         <v>2.05</v>
       </c>
       <c r="AS168">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT168">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AU168">
         <v>2.01</v>
@@ -33665,7 +33677,7 @@
         <v>206</v>
       </c>
       <c r="P169" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q169">
         <v>7</v>
@@ -33856,7 +33868,7 @@
         <v>85</v>
       </c>
       <c r="P170" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -33943,10 +33955,10 @@
         <v>1.9</v>
       </c>
       <c r="AS170">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AT170">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU170">
         <v>1.84</v>
@@ -34047,7 +34059,7 @@
         <v>207</v>
       </c>
       <c r="P171" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q171">
         <v>10</v>
@@ -34137,7 +34149,7 @@
         <v>1.74</v>
       </c>
       <c r="AT171">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU171">
         <v>1.78</v>
@@ -34325,7 +34337,7 @@
         <v>1.74</v>
       </c>
       <c r="AS172">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT172">
         <v>1.74</v>
@@ -34429,7 +34441,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -35193,7 +35205,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q177">
         <v>10</v>
@@ -35280,7 +35292,7 @@
         <v>1.4</v>
       </c>
       <c r="AS177">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT177">
         <v>1.8</v>
@@ -35575,7 +35587,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q179">
         <v>13</v>
@@ -35662,7 +35674,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT179">
         <v>0.8</v>
@@ -35766,7 +35778,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -36339,7 +36351,7 @@
         <v>214</v>
       </c>
       <c r="P183" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36429,7 +36441,7 @@
         <v>1.81</v>
       </c>
       <c r="AT183">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU183">
         <v>1.58</v>
@@ -36530,7 +36542,7 @@
         <v>215</v>
       </c>
       <c r="P184" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q184">
         <v>8</v>
@@ -36808,10 +36820,10 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT185">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU185">
         <v>1.33</v>
@@ -36999,7 +37011,7 @@
         <v>0.5</v>
       </c>
       <c r="AS186">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT186">
         <v>0.57</v>
@@ -37103,7 +37115,7 @@
         <v>218</v>
       </c>
       <c r="P187" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37384,7 +37396,7 @@
         <v>1.85</v>
       </c>
       <c r="AT188">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU188">
         <v>1.65</v>
@@ -37485,7 +37497,7 @@
         <v>220</v>
       </c>
       <c r="P189" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q189">
         <v>7</v>
@@ -37867,7 +37879,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -38058,7 +38070,7 @@
         <v>223</v>
       </c>
       <c r="P192" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q192">
         <v>15</v>
@@ -38440,7 +38452,7 @@
         <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38822,7 +38834,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39100,7 +39112,7 @@
         <v>0.8</v>
       </c>
       <c r="AS197">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT197">
         <v>0.8</v>
@@ -39204,7 +39216,7 @@
         <v>227</v>
       </c>
       <c r="P198" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q198">
         <v>9</v>
@@ -39395,7 +39407,7 @@
         <v>117</v>
       </c>
       <c r="P199" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39485,7 +39497,7 @@
         <v>1.5</v>
       </c>
       <c r="AT199">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU199">
         <v>1.56</v>
@@ -39968,7 +39980,7 @@
         <v>118</v>
       </c>
       <c r="P202" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40055,7 +40067,7 @@
         <v>1.27</v>
       </c>
       <c r="AS202">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT202">
         <v>1.5</v>
@@ -40541,7 +40553,7 @@
         <v>229</v>
       </c>
       <c r="P205" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q205">
         <v>9</v>
@@ -40628,10 +40640,10 @@
         <v>0.82</v>
       </c>
       <c r="AS205">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT205">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU205">
         <v>1.9</v>
@@ -41114,7 +41126,7 @@
         <v>231</v>
       </c>
       <c r="P208" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q208">
         <v>8</v>
@@ -41204,7 +41216,7 @@
         <v>1.29</v>
       </c>
       <c r="AT208">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU208">
         <v>1.37</v>
@@ -41305,7 +41317,7 @@
         <v>232</v>
       </c>
       <c r="P209" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q209">
         <v>2</v>
@@ -41496,7 +41508,7 @@
         <v>85</v>
       </c>
       <c r="P210" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q210">
         <v>10</v>
@@ -41687,7 +41699,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41878,7 +41890,7 @@
         <v>233</v>
       </c>
       <c r="P212" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -41965,7 +41977,7 @@
         <v>1.83</v>
       </c>
       <c r="AS212">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT212">
         <v>1.88</v>
@@ -42069,7 +42081,7 @@
         <v>234</v>
       </c>
       <c r="P213" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -42642,7 +42654,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42833,7 +42845,7 @@
         <v>85</v>
       </c>
       <c r="P217" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -42923,7 +42935,7 @@
         <v>1.13</v>
       </c>
       <c r="AT217">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU217">
         <v>1.45</v>
@@ -43496,7 +43508,7 @@
         <v>2.19</v>
       </c>
       <c r="AT220">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU220">
         <v>2.16</v>
@@ -43684,7 +43696,7 @@
         <v>1.09</v>
       </c>
       <c r="AS221">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT221">
         <v>0.93</v>
@@ -43788,7 +43800,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q222">
         <v>8</v>
@@ -44066,7 +44078,7 @@
         <v>1.42</v>
       </c>
       <c r="AS223">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT223">
         <v>1.5</v>
@@ -44170,7 +44182,7 @@
         <v>242</v>
       </c>
       <c r="P224" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q224">
         <v>5</v>
@@ -44743,7 +44755,7 @@
         <v>244</v>
       </c>
       <c r="P227" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q227">
         <v>4</v>
@@ -45125,7 +45137,7 @@
         <v>246</v>
       </c>
       <c r="P229" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q229">
         <v>10</v>
@@ -45215,7 +45227,7 @@
         <v>1.54</v>
       </c>
       <c r="AT229">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU229">
         <v>1.85</v>
@@ -45507,7 +45519,7 @@
         <v>248</v>
       </c>
       <c r="P231" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q231">
         <v>-1</v>
@@ -45785,7 +45797,7 @@
         <v>0.92</v>
       </c>
       <c r="AS232">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT232">
         <v>1.07</v>
@@ -45889,7 +45901,7 @@
         <v>88</v>
       </c>
       <c r="P233" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q233">
         <v>2</v>
@@ -46080,7 +46092,7 @@
         <v>96</v>
       </c>
       <c r="P234" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -46271,7 +46283,7 @@
         <v>249</v>
       </c>
       <c r="P235" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q235">
         <v>4</v>
@@ -46361,7 +46373,7 @@
         <v>2.25</v>
       </c>
       <c r="AT235">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU235">
         <v>1.97</v>
@@ -46462,7 +46474,7 @@
         <v>85</v>
       </c>
       <c r="P236" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -46653,7 +46665,7 @@
         <v>190</v>
       </c>
       <c r="P237" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -46844,7 +46856,7 @@
         <v>131</v>
       </c>
       <c r="P238" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q238">
         <v>7</v>
@@ -47125,7 +47137,7 @@
         <v>2.19</v>
       </c>
       <c r="AT239">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU239">
         <v>2.12</v>
@@ -47226,7 +47238,7 @@
         <v>144</v>
       </c>
       <c r="P240" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q240">
         <v>7</v>
@@ -47313,7 +47325,7 @@
         <v>1.36</v>
       </c>
       <c r="AS240">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT240">
         <v>1.47</v>
@@ -47608,7 +47620,7 @@
         <v>85</v>
       </c>
       <c r="P242" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q242">
         <v>8</v>
@@ -47695,7 +47707,7 @@
         <v>1.47</v>
       </c>
       <c r="AS242">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT242">
         <v>1.47</v>
@@ -47990,7 +48002,7 @@
         <v>117</v>
       </c>
       <c r="P244" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q244">
         <v>-1</v>
@@ -48372,7 +48384,7 @@
         <v>252</v>
       </c>
       <c r="P246" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q246">
         <v>9</v>
@@ -48563,7 +48575,7 @@
         <v>253</v>
       </c>
       <c r="P247" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48945,7 +48957,7 @@
         <v>255</v>
       </c>
       <c r="P249" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49032,7 +49044,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS249">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AT249">
         <v>0.8</v>
@@ -49417,7 +49429,7 @@
         <v>1.85</v>
       </c>
       <c r="AT251">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AU251">
         <v>1.9</v>
@@ -49518,7 +49530,7 @@
         <v>85</v>
       </c>
       <c r="P252" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -49709,7 +49721,7 @@
         <v>257</v>
       </c>
       <c r="P253" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q253">
         <v>-1</v>
@@ -49900,7 +49912,7 @@
         <v>141</v>
       </c>
       <c r="P254" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q254">
         <v>5</v>
@@ -50282,7 +50294,7 @@
         <v>85</v>
       </c>
       <c r="P256" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q256">
         <v>9</v>
@@ -50855,7 +50867,7 @@
         <v>261</v>
       </c>
       <c r="P259" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q259">
         <v>5</v>
@@ -52001,7 +52013,7 @@
         <v>85</v>
       </c>
       <c r="P265" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q265">
         <v>3</v>
@@ -52334,6 +52346,579 @@
       </c>
       <c r="BK266">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:63">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>4661686</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" s="2">
+        <v>44997.92013888889</v>
+      </c>
+      <c r="F267">
+        <v>11</v>
+      </c>
+      <c r="G267" t="s">
+        <v>73</v>
+      </c>
+      <c r="H267" t="s">
+        <v>78</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>2</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="O267" t="s">
+        <v>221</v>
+      </c>
+      <c r="P267" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q267">
+        <v>4</v>
+      </c>
+      <c r="R267">
+        <v>1</v>
+      </c>
+      <c r="S267">
+        <v>5</v>
+      </c>
+      <c r="T267">
+        <v>2.95</v>
+      </c>
+      <c r="U267">
+        <v>2.05</v>
+      </c>
+      <c r="V267">
+        <v>3.3</v>
+      </c>
+      <c r="W267">
+        <v>1.38</v>
+      </c>
+      <c r="X267">
+        <v>2.8</v>
+      </c>
+      <c r="Y267">
+        <v>2.6</v>
+      </c>
+      <c r="Z267">
+        <v>1.42</v>
+      </c>
+      <c r="AA267">
+        <v>6.5</v>
+      </c>
+      <c r="AB267">
+        <v>1.09</v>
+      </c>
+      <c r="AC267">
+        <v>2.38</v>
+      </c>
+      <c r="AD267">
+        <v>3.4</v>
+      </c>
+      <c r="AE267">
+        <v>2.73</v>
+      </c>
+      <c r="AF267">
+        <v>1.05</v>
+      </c>
+      <c r="AG267">
+        <v>9.25</v>
+      </c>
+      <c r="AH267">
+        <v>1.26</v>
+      </c>
+      <c r="AI267">
+        <v>3.5</v>
+      </c>
+      <c r="AJ267">
+        <v>1.88</v>
+      </c>
+      <c r="AK267">
+        <v>2.02</v>
+      </c>
+      <c r="AL267">
+        <v>1.68</v>
+      </c>
+      <c r="AM267">
+        <v>2.13</v>
+      </c>
+      <c r="AN267">
+        <v>1.4</v>
+      </c>
+      <c r="AO267">
+        <v>1.32</v>
+      </c>
+      <c r="AP267">
+        <v>1.53</v>
+      </c>
+      <c r="AQ267">
+        <v>2.29</v>
+      </c>
+      <c r="AR267">
+        <v>1.87</v>
+      </c>
+      <c r="AS267">
+        <v>2.17</v>
+      </c>
+      <c r="AT267">
+        <v>1.94</v>
+      </c>
+      <c r="AU267">
+        <v>1.94</v>
+      </c>
+      <c r="AV267">
+        <v>1.81</v>
+      </c>
+      <c r="AW267">
+        <v>3.75</v>
+      </c>
+      <c r="AX267">
+        <v>1.87</v>
+      </c>
+      <c r="AY267">
+        <v>7.6</v>
+      </c>
+      <c r="AZ267">
+        <v>2.34</v>
+      </c>
+      <c r="BA267">
+        <v>1.24</v>
+      </c>
+      <c r="BB267">
+        <v>1.46</v>
+      </c>
+      <c r="BC267">
+        <v>1.88</v>
+      </c>
+      <c r="BD267">
+        <v>2.37</v>
+      </c>
+      <c r="BE267">
+        <v>3.3</v>
+      </c>
+      <c r="BF267">
+        <v>6</v>
+      </c>
+      <c r="BG267">
+        <v>6</v>
+      </c>
+      <c r="BH267">
+        <v>6</v>
+      </c>
+      <c r="BI267">
+        <v>7</v>
+      </c>
+      <c r="BJ267">
+        <v>12</v>
+      </c>
+      <c r="BK267">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>4661687</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>44997.92013888889</v>
+      </c>
+      <c r="F268">
+        <v>11</v>
+      </c>
+      <c r="G268" t="s">
+        <v>72</v>
+      </c>
+      <c r="H268" t="s">
+        <v>75</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>2</v>
+      </c>
+      <c r="L268">
+        <v>3</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+      <c r="N268">
+        <v>5</v>
+      </c>
+      <c r="O268" t="s">
+        <v>264</v>
+      </c>
+      <c r="P268" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q268">
+        <v>14</v>
+      </c>
+      <c r="R268">
+        <v>4</v>
+      </c>
+      <c r="S268">
+        <v>18</v>
+      </c>
+      <c r="T268">
+        <v>2.4</v>
+      </c>
+      <c r="U268">
+        <v>2.38</v>
+      </c>
+      <c r="V268">
+        <v>4</v>
+      </c>
+      <c r="W268">
+        <v>1.3</v>
+      </c>
+      <c r="X268">
+        <v>3.4</v>
+      </c>
+      <c r="Y268">
+        <v>2.5</v>
+      </c>
+      <c r="Z268">
+        <v>1.5</v>
+      </c>
+      <c r="AA268">
+        <v>6</v>
+      </c>
+      <c r="AB268">
+        <v>1.13</v>
+      </c>
+      <c r="AC268">
+        <v>1.85</v>
+      </c>
+      <c r="AD268">
+        <v>3.55</v>
+      </c>
+      <c r="AE268">
+        <v>3.72</v>
+      </c>
+      <c r="AF268">
+        <v>1.03</v>
+      </c>
+      <c r="AG268">
+        <v>13</v>
+      </c>
+      <c r="AH268">
+        <v>1.18</v>
+      </c>
+      <c r="AI268">
+        <v>4.4</v>
+      </c>
+      <c r="AJ268">
+        <v>1.65</v>
+      </c>
+      <c r="AK268">
+        <v>2.1</v>
+      </c>
+      <c r="AL268">
+        <v>1.62</v>
+      </c>
+      <c r="AM268">
+        <v>2.2</v>
+      </c>
+      <c r="AN268">
+        <v>1.21</v>
+      </c>
+      <c r="AO268">
+        <v>1.25</v>
+      </c>
+      <c r="AP268">
+        <v>1.9</v>
+      </c>
+      <c r="AQ268">
+        <v>2.13</v>
+      </c>
+      <c r="AR268">
+        <v>0.77</v>
+      </c>
+      <c r="AS268">
+        <v>2.19</v>
+      </c>
+      <c r="AT268">
+        <v>0.71</v>
+      </c>
+      <c r="AU268">
+        <v>1.98</v>
+      </c>
+      <c r="AV268">
+        <v>1.29</v>
+      </c>
+      <c r="AW268">
+        <v>3.27</v>
+      </c>
+      <c r="AX268">
+        <v>1.36</v>
+      </c>
+      <c r="AY268">
+        <v>6.25</v>
+      </c>
+      <c r="AZ268">
+        <v>3.5</v>
+      </c>
+      <c r="BA268">
+        <v>1.2</v>
+      </c>
+      <c r="BB268">
+        <v>1.39</v>
+      </c>
+      <c r="BC268">
+        <v>1.7</v>
+      </c>
+      <c r="BD268">
+        <v>2.2</v>
+      </c>
+      <c r="BE268">
+        <v>2.95</v>
+      </c>
+      <c r="BF268">
+        <v>8</v>
+      </c>
+      <c r="BG268">
+        <v>6</v>
+      </c>
+      <c r="BH268">
+        <v>2</v>
+      </c>
+      <c r="BI268">
+        <v>6</v>
+      </c>
+      <c r="BJ268">
+        <v>10</v>
+      </c>
+      <c r="BK268">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>4661688</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>44998.01041666666</v>
+      </c>
+      <c r="F269">
+        <v>11</v>
+      </c>
+      <c r="G269" t="s">
+        <v>81</v>
+      </c>
+      <c r="H269" t="s">
+        <v>66</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>265</v>
+      </c>
+      <c r="P269" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q269">
+        <v>5</v>
+      </c>
+      <c r="R269">
+        <v>2</v>
+      </c>
+      <c r="S269">
+        <v>7</v>
+      </c>
+      <c r="T269">
+        <v>2.75</v>
+      </c>
+      <c r="U269">
+        <v>2.1</v>
+      </c>
+      <c r="V269">
+        <v>4.33</v>
+      </c>
+      <c r="W269">
+        <v>1.44</v>
+      </c>
+      <c r="X269">
+        <v>2.63</v>
+      </c>
+      <c r="Y269">
+        <v>3.25</v>
+      </c>
+      <c r="Z269">
+        <v>1.33</v>
+      </c>
+      <c r="AA269">
+        <v>9</v>
+      </c>
+      <c r="AB269">
+        <v>1.07</v>
+      </c>
+      <c r="AC269">
+        <v>2.05</v>
+      </c>
+      <c r="AD269">
+        <v>3.28</v>
+      </c>
+      <c r="AE269">
+        <v>3.35</v>
+      </c>
+      <c r="AF269">
+        <v>1.04</v>
+      </c>
+      <c r="AG269">
+        <v>8.5</v>
+      </c>
+      <c r="AH269">
+        <v>1.32</v>
+      </c>
+      <c r="AI269">
+        <v>3.05</v>
+      </c>
+      <c r="AJ269">
+        <v>2</v>
+      </c>
+      <c r="AK269">
+        <v>1.75</v>
+      </c>
+      <c r="AL269">
+        <v>1.95</v>
+      </c>
+      <c r="AM269">
+        <v>1.8</v>
+      </c>
+      <c r="AN269">
+        <v>1.23</v>
+      </c>
+      <c r="AO269">
+        <v>1.29</v>
+      </c>
+      <c r="AP269">
+        <v>1.78</v>
+      </c>
+      <c r="AQ269">
+        <v>1.38</v>
+      </c>
+      <c r="AR269">
+        <v>0.64</v>
+      </c>
+      <c r="AS269">
+        <v>1.36</v>
+      </c>
+      <c r="AT269">
+        <v>0.67</v>
+      </c>
+      <c r="AU269">
+        <v>1.45</v>
+      </c>
+      <c r="AV269">
+        <v>1.36</v>
+      </c>
+      <c r="AW269">
+        <v>2.81</v>
+      </c>
+      <c r="AX269">
+        <v>1.45</v>
+      </c>
+      <c r="AY269">
+        <v>5.75</v>
+      </c>
+      <c r="AZ269">
+        <v>3.1</v>
+      </c>
+      <c r="BA269">
+        <v>1.34</v>
+      </c>
+      <c r="BB269">
+        <v>1.63</v>
+      </c>
+      <c r="BC269">
+        <v>2.1</v>
+      </c>
+      <c r="BD269">
+        <v>2.9</v>
+      </c>
+      <c r="BE269">
+        <v>4</v>
+      </c>
+      <c r="BF269">
+        <v>4</v>
+      </c>
+      <c r="BG269">
+        <v>5</v>
+      </c>
+      <c r="BH269">
+        <v>4</v>
+      </c>
+      <c r="BI269">
+        <v>10</v>
+      </c>
+      <c r="BJ269">
+        <v>8</v>
+      </c>
+      <c r="BK269">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK269"/>
+  <dimension ref="A1:BK272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT2" t="n">
         <v>0.8</v>
@@ -1106,7 +1106,7 @@
         <v>1.29</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.19</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT11" t="n">
         <v>1.8</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT12" t="n">
         <v>0.93</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT13" t="n">
         <v>0.8</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.19</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU20" t="n">
         <v>1.71</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT21" t="n">
         <v>1.07</v>
@@ -5572,7 +5572,7 @@
         <v>1.21</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU25" t="n">
         <v>1.68</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT35" t="n">
         <v>1.88</v>
@@ -7805,7 +7805,7 @@
         <v>1.88</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU36" t="n">
         <v>2.14</v>
@@ -9023,7 +9023,7 @@
         <v>1.85</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU42" t="n">
         <v>1.43</v>
@@ -9835,7 +9835,7 @@
         <v>1.36</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU46" t="n">
         <v>1.02</v>
@@ -10038,7 +10038,7 @@
         <v>1.81</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU47" t="n">
         <v>1.67</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT51" t="n">
         <v>0.64</v>
@@ -11256,7 +11256,7 @@
         <v>2.19</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU53" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT58" t="n">
         <v>1.5</v>
@@ -13083,7 +13083,7 @@
         <v>1.14</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU62" t="n">
         <v>1.28</v>
@@ -14095,7 +14095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT67" t="n">
         <v>0.8</v>
@@ -14707,7 +14707,7 @@
         <v>1.54</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU70" t="n">
         <v>1.75</v>
@@ -14910,7 +14910,7 @@
         <v>1.81</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU71" t="n">
         <v>1.59</v>
@@ -15516,7 +15516,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT74" t="n">
         <v>0.33</v>
@@ -15719,10 +15719,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -18361,7 +18361,7 @@
         <v>1.14</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU88" t="n">
         <v>1.38</v>
@@ -19376,7 +19376,7 @@
         <v>2.17</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU93" t="n">
         <v>1.95</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT94" t="n">
         <v>0.93</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT95" t="n">
         <v>0.8</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT96" t="n">
         <v>1.88</v>
@@ -20391,7 +20391,7 @@
         <v>1.88</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU98" t="n">
         <v>2.35</v>
@@ -21000,7 +21000,7 @@
         <v>1.85</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU101" t="n">
         <v>1.58</v>
@@ -21403,7 +21403,7 @@
         <v>1.57</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT103" t="n">
         <v>1.94</v>
@@ -23639,7 +23639,7 @@
         <v>2.19</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU114" t="n">
         <v>1.89</v>
@@ -24245,7 +24245,7 @@
         <v>1.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT117" t="n">
         <v>1.69</v>
@@ -24451,7 +24451,7 @@
         <v>1.88</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU118" t="n">
         <v>2.27</v>
@@ -24651,10 +24651,10 @@
         <v>0.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU119" t="n">
         <v>1.2</v>
@@ -25057,7 +25057,7 @@
         <v>1.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT121" t="n">
         <v>1.5</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT135" t="n">
         <v>1.8</v>
@@ -28102,10 +28102,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU136" t="n">
         <v>1.23</v>
@@ -28308,7 +28308,7 @@
         <v>2.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -29523,10 +29523,10 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU143" t="n">
         <v>1.41</v>
@@ -29929,7 +29929,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT145" t="n">
         <v>0.57</v>
@@ -30132,7 +30132,7 @@
         <v>1.88</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT146" t="n">
         <v>1.88</v>
@@ -30947,7 +30947,7 @@
         <v>1.13</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU150" t="n">
         <v>1.5</v>
@@ -31962,7 +31962,7 @@
         <v>1.84</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="AU155" t="n">
         <v>2.21</v>
@@ -32365,7 +32365,7 @@
         <v>1.12</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AT157" t="n">
         <v>1.07</v>
@@ -32568,7 +32568,7 @@
         <v>1.29</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AT158" t="n">
         <v>1.52</v>
@@ -32771,7 +32771,7 @@
         <v>2.24</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AT159" t="n">
         <v>2.03</v>
@@ -33177,7 +33177,7 @@
         <v>1.94</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AT161" t="n">
         <v>1.6</v>
@@ -33789,7 +33789,7 @@
         <v>2.03</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AU164" t="n">
         <v>2.1</v>
@@ -33992,7 +33992,7 @@
         <v>1.6</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AU165" t="n">
         <v>1.85</v>
@@ -34395,7 +34395,7 @@
         <v>2.32</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AT167" t="n">
         <v>2.03</v>
@@ -34804,7 +34804,7 @@
         <v>2.03</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AU169" t="n">
         <v>2.08</v>
@@ -35207,7 +35207,7 @@
         <v>1.95</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AT171" t="n">
         <v>1.94</v>
@@ -35413,7 +35413,7 @@
         <v>1.94</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AU172" t="n">
         <v>2.01</v>
@@ -36628,7 +36628,7 @@
         <v>0.89</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT178" t="n">
         <v>0.86</v>
@@ -37440,7 +37440,7 @@
         <v>0.3</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT182" t="n">
         <v>0.33</v>
@@ -38661,7 +38661,7 @@
         <v>1.85</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU188" t="n">
         <v>1.65</v>
@@ -38861,7 +38861,7 @@
         <v>0.89</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT189" t="n">
         <v>0.93</v>
@@ -39064,7 +39064,7 @@
         <v>1.55</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT190" t="n">
         <v>1.8</v>
@@ -39879,7 +39879,7 @@
         <v>1.54</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU194" t="n">
         <v>1.87</v>
@@ -40285,7 +40285,7 @@
         <v>1</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU196" t="n">
         <v>1.76</v>
@@ -40891,7 +40891,7 @@
         <v>1.75</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT199" t="n">
         <v>1.94</v>
@@ -41094,7 +41094,7 @@
         <v>0.44</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT200" t="n">
         <v>0.57</v>
@@ -42112,7 +42112,7 @@
         <v>2.17</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU205" t="n">
         <v>1.9</v>
@@ -42315,7 +42315,7 @@
         <v>1.13</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU206" t="n">
         <v>1.48</v>
@@ -42921,7 +42921,7 @@
         <v>0.73</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT209" t="n">
         <v>0.8</v>
@@ -43736,7 +43736,7 @@
         <v>1.21</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU213" t="n">
         <v>1.7</v>
@@ -44142,7 +44142,7 @@
         <v>2.25</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU215" t="n">
         <v>2.05</v>
@@ -44748,7 +44748,7 @@
         <v>0.73</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT218" t="n">
         <v>0.64</v>
@@ -44951,7 +44951,7 @@
         <v>1.27</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT219" t="n">
         <v>1</v>
@@ -45157,7 +45157,7 @@
         <v>2.19</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU220" t="n">
         <v>2.16</v>
@@ -47387,7 +47387,7 @@
         <v>1.62</v>
       </c>
       <c r="AS231" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT231" t="n">
         <v>1.69</v>
@@ -47793,7 +47793,7 @@
         <v>0.75</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT233" t="n">
         <v>0.86</v>
@@ -48202,7 +48202,7 @@
         <v>2.25</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU235" t="n">
         <v>1.97</v>
@@ -49217,7 +49217,7 @@
         <v>2.17</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU240" t="n">
         <v>1.95</v>
@@ -49420,7 +49420,7 @@
         <v>1.81</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU241" t="n">
         <v>1.6</v>
@@ -49623,7 +49623,7 @@
         <v>2.19</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU242" t="n">
         <v>1.97</v>
@@ -50026,7 +50026,7 @@
         <v>0.42</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT244" t="n">
         <v>0.57</v>
@@ -51244,7 +51244,7 @@
         <v>1.71</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT250" t="n">
         <v>1.69</v>
@@ -51853,7 +51853,7 @@
         <v>0.92</v>
       </c>
       <c r="AS253" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT253" t="n">
         <v>0.86</v>
@@ -52056,10 +52056,10 @@
         <v>0.33</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AU254" t="n">
         <v>1.69</v>
@@ -53277,7 +53277,7 @@
         <v>1</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU260" t="n">
         <v>1.73</v>
@@ -53680,7 +53680,7 @@
         <v>1.6</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT262" t="n">
         <v>1.5</v>
@@ -55104,7 +55104,7 @@
         <v>1.36</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU269" t="n">
         <v>1.45</v>
@@ -55156,6 +55156,615 @@
       </c>
       <c r="BK269" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>4661689</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45002.91666666666</v>
+      </c>
+      <c r="F270" t="n">
+        <v>12</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>2</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>4</v>
+      </c>
+      <c r="N270" t="n">
+        <v>4</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['5', '16', '51', '69']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>3</v>
+      </c>
+      <c r="R270" t="n">
+        <v>2</v>
+      </c>
+      <c r="S270" t="n">
+        <v>5</v>
+      </c>
+      <c r="T270" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V270" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>4661690</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45003.00347222222</v>
+      </c>
+      <c r="F271" t="n">
+        <v>12</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Mazatlán</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T271" t="n">
+        <v>0</v>
+      </c>
+      <c r="U271" t="n">
+        <v>0</v>
+      </c>
+      <c r="V271" t="n">
+        <v>0</v>
+      </c>
+      <c r="W271" t="n">
+        <v>0</v>
+      </c>
+      <c r="X271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4661691</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45003.00347222222</v>
+      </c>
+      <c r="F272" t="n">
+        <v>12</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3</v>
+      </c>
+      <c r="K272" t="n">
+        <v>3</v>
+      </c>
+      <c r="L272" t="n">
+        <v>3</v>
+      </c>
+      <c r="M272" t="n">
+        <v>3</v>
+      </c>
+      <c r="N272" t="n">
+        <v>6</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['48', '58', '77']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['22', '24', '35']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>4</v>
+      </c>
+      <c r="R272" t="n">
+        <v>5</v>
+      </c>
+      <c r="S272" t="n">
+        <v>9</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V272" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="397">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1203,6 +1203,9 @@
   <si>
     <t>['59', '69']</t>
   </si>
+  <si>
+    <t>['2', '80']</t>
+  </si>
 </sst>
 </file>
 
@@ -1563,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK278"/>
+  <dimension ref="A1:BK279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1894,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT2">
         <v>0.8</v>
@@ -3043,7 +3046,7 @@
         <v>1.14</v>
       </c>
       <c r="AT8">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3613,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT11">
         <v>1.8</v>
@@ -5526,7 +5529,7 @@
         <v>1.41</v>
       </c>
       <c r="AT21">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU21">
         <v>2.03</v>
@@ -7054,7 +7057,7 @@
         <v>1.43</v>
       </c>
       <c r="AT29">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU29">
         <v>1.88</v>
@@ -7433,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT31">
         <v>0.93</v>
@@ -12590,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT58">
         <v>1.5</v>
@@ -12784,7 +12787,7 @@
         <v>2.25</v>
       </c>
       <c r="AT59">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU59">
         <v>2.17</v>
@@ -15646,7 +15649,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT74">
         <v>0.33</v>
@@ -16604,7 +16607,7 @@
         <v>2.19</v>
       </c>
       <c r="AT79">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU79">
         <v>1.66</v>
@@ -18514,7 +18517,7 @@
         <v>2.17</v>
       </c>
       <c r="AT89">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU89">
         <v>1.91</v>
@@ -19848,7 +19851,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT96">
         <v>1.94</v>
@@ -21761,7 +21764,7 @@
         <v>1.29</v>
       </c>
       <c r="AT106">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU106">
         <v>1.23</v>
@@ -24241,7 +24244,7 @@
         <v>0.29</v>
       </c>
       <c r="AS119">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT119">
         <v>0.57</v>
@@ -25390,7 +25393,7 @@
         <v>1.76</v>
       </c>
       <c r="AT125">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU125">
         <v>2.3</v>
@@ -27109,7 +27112,7 @@
         <v>1.88</v>
       </c>
       <c r="AT134">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU134">
         <v>1.61</v>
@@ -27488,7 +27491,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT136">
         <v>1.44</v>
@@ -31311,7 +31314,7 @@
         <v>1.42</v>
       </c>
       <c r="AT156">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AU156">
         <v>1.63</v>
@@ -37611,7 +37614,7 @@
         <v>0.89</v>
       </c>
       <c r="AS189">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT189">
         <v>0.87</v>
@@ -38760,7 +38763,7 @@
         <v>1.13</v>
       </c>
       <c r="AT195">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU195">
         <v>1.73</v>
@@ -40479,7 +40482,7 @@
         <v>2</v>
       </c>
       <c r="AT204">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU204">
         <v>1.79</v>
@@ -41431,7 +41434,7 @@
         <v>0.73</v>
       </c>
       <c r="AS209">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT209">
         <v>0.8100000000000001</v>
@@ -42771,7 +42774,7 @@
         <v>1</v>
       </c>
       <c r="AT216">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU216">
         <v>1.76</v>
@@ -45633,7 +45636,7 @@
         <v>1.62</v>
       </c>
       <c r="AS231">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT231">
         <v>1.76</v>
@@ -45827,7 +45830,7 @@
         <v>1.36</v>
       </c>
       <c r="AT232">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU232">
         <v>1.54</v>
@@ -48116,7 +48119,7 @@
         <v>0.42</v>
       </c>
       <c r="AS244">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT244">
         <v>0.57</v>
@@ -49835,7 +49838,7 @@
         <v>0.92</v>
       </c>
       <c r="AS253">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT253">
         <v>0.86</v>
@@ -51748,7 +51751,7 @@
         <v>1.13</v>
       </c>
       <c r="AT263">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU263">
         <v>1.45</v>
@@ -53273,7 +53276,7 @@
         <v>0.67</v>
       </c>
       <c r="AS271">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT271">
         <v>0.8100000000000001</v>
@@ -54665,6 +54668,197 @@
       </c>
       <c r="BK278">
         <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:63">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>4655328</v>
+      </c>
+      <c r="C279" t="s">
+        <v>63</v>
+      </c>
+      <c r="D279" t="s">
+        <v>64</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45010.00347222222</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279" t="s">
+        <v>65</v>
+      </c>
+      <c r="H279" t="s">
+        <v>76</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>91</v>
+      </c>
+      <c r="P279" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q279">
+        <v>-1</v>
+      </c>
+      <c r="R279">
+        <v>-1</v>
+      </c>
+      <c r="S279">
+        <v>-1</v>
+      </c>
+      <c r="T279">
+        <v>0</v>
+      </c>
+      <c r="U279">
+        <v>0</v>
+      </c>
+      <c r="V279">
+        <v>0</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+      <c r="AB279">
+        <v>0</v>
+      </c>
+      <c r="AC279">
+        <v>2.6</v>
+      </c>
+      <c r="AD279">
+        <v>3.25</v>
+      </c>
+      <c r="AE279">
+        <v>2.7</v>
+      </c>
+      <c r="AF279">
+        <v>0</v>
+      </c>
+      <c r="AG279">
+        <v>0</v>
+      </c>
+      <c r="AH279">
+        <v>0</v>
+      </c>
+      <c r="AI279">
+        <v>0</v>
+      </c>
+      <c r="AJ279">
+        <v>1.68</v>
+      </c>
+      <c r="AK279">
+        <v>2.1</v>
+      </c>
+      <c r="AL279">
+        <v>0</v>
+      </c>
+      <c r="AM279">
+        <v>0</v>
+      </c>
+      <c r="AN279">
+        <v>0</v>
+      </c>
+      <c r="AO279">
+        <v>0</v>
+      </c>
+      <c r="AP279">
+        <v>0</v>
+      </c>
+      <c r="AQ279">
+        <v>0.86</v>
+      </c>
+      <c r="AR279">
+        <v>1.07</v>
+      </c>
+      <c r="AS279">
+        <v>0.8</v>
+      </c>
+      <c r="AT279">
+        <v>1.19</v>
+      </c>
+      <c r="AU279">
+        <v>1.29</v>
+      </c>
+      <c r="AV279">
+        <v>1.34</v>
+      </c>
+      <c r="AW279">
+        <v>2.63</v>
+      </c>
+      <c r="AX279">
+        <v>0</v>
+      </c>
+      <c r="AY279">
+        <v>0</v>
+      </c>
+      <c r="AZ279">
+        <v>0</v>
+      </c>
+      <c r="BA279">
+        <v>0</v>
+      </c>
+      <c r="BB279">
+        <v>0</v>
+      </c>
+      <c r="BC279">
+        <v>0</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>-1</v>
+      </c>
+      <c r="BG279">
+        <v>-1</v>
+      </c>
+      <c r="BH279">
+        <v>-1</v>
+      </c>
+      <c r="BI279">
+        <v>-1</v>
+      </c>
+      <c r="BJ279">
+        <v>-1</v>
+      </c>
+      <c r="BK279">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Liga MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK289"/>
+  <dimension ref="A1:BK291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.27</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.05</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>0.88</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT13" t="n">
         <v>0.8100000000000001</v>
@@ -4557,7 +4557,7 @@
         <v>2.12</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU20" t="n">
         <v>1.71</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>1.18</v>
@@ -4963,7 +4963,7 @@
         <v>1.27</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT35" t="n">
         <v>1.94</v>
@@ -9023,7 +9023,7 @@
         <v>1.93</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU42" t="n">
         <v>1.43</v>
@@ -9835,7 +9835,7 @@
         <v>1.27</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU46" t="n">
         <v>1.02</v>
@@ -10241,7 +10241,7 @@
         <v>1.76</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>2.67</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT50" t="n">
         <v>0.93</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT51" t="n">
         <v>0.6</v>
@@ -12068,7 +12068,7 @@
         <v>1.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -14095,7 +14095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT67" t="n">
         <v>0.9399999999999999</v>
@@ -14910,7 +14910,7 @@
         <v>1.88</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU71" t="n">
         <v>1.59</v>
@@ -15519,7 +15519,7 @@
         <v>0.8</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.25</v>
@@ -15719,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT75" t="n">
         <v>0.8100000000000001</v>
@@ -18361,7 +18361,7 @@
         <v>1.27</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU88" t="n">
         <v>1.38</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT94" t="n">
         <v>0.88</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT95" t="n">
         <v>0.8100000000000001</v>
@@ -20188,7 +20188,7 @@
         <v>1.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.63</v>
@@ -21403,7 +21403,7 @@
         <v>1.57</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT103" t="n">
         <v>2</v>
@@ -24245,7 +24245,7 @@
         <v>1.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT117" t="n">
         <v>1.76</v>
@@ -24451,7 +24451,7 @@
         <v>1.76</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU118" t="n">
         <v>2.27</v>
@@ -24857,7 +24857,7 @@
         <v>1.13</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.59</v>
@@ -25057,7 +25057,7 @@
         <v>1.2</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT121" t="n">
         <v>1.47</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT135" t="n">
         <v>1.69</v>
@@ -28105,7 +28105,7 @@
         <v>0.8</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU136" t="n">
         <v>1.23</v>
@@ -29120,7 +29120,7 @@
         <v>1.93</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -29523,7 +29523,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT143" t="n">
         <v>0.8100000000000001</v>
@@ -29929,7 +29929,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT145" t="n">
         <v>0.53</v>
@@ -30132,7 +30132,7 @@
         <v>1.88</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT146" t="n">
         <v>1.94</v>
@@ -31353,7 +31353,7 @@
         <v>2.05</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.84</v>
@@ -32365,7 +32365,7 @@
         <v>1.12</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT157" t="n">
         <v>1.03</v>
@@ -32568,7 +32568,7 @@
         <v>1.29</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AT158" t="n">
         <v>1.45</v>
@@ -32771,7 +32771,7 @@
         <v>2.24</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AT159" t="n">
         <v>2.03</v>
@@ -33177,7 +33177,7 @@
         <v>1.94</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT161" t="n">
         <v>1.53</v>
@@ -33789,7 +33789,7 @@
         <v>2.03</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AU164" t="n">
         <v>2.1</v>
@@ -33992,7 +33992,7 @@
         <v>1.53</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AU165" t="n">
         <v>1.85</v>
@@ -34395,7 +34395,7 @@
         <v>2.32</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT167" t="n">
         <v>2.03</v>
@@ -34804,7 +34804,7 @@
         <v>2.03</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AU169" t="n">
         <v>2.08</v>
@@ -35207,7 +35207,7 @@
         <v>1.95</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT171" t="n">
         <v>1.92</v>
@@ -35413,7 +35413,7 @@
         <v>1.92</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AU172" t="n">
         <v>2.01</v>
@@ -35819,7 +35819,7 @@
         <v>2.12</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU174" t="n">
         <v>2.1</v>
@@ -36628,7 +36628,7 @@
         <v>0.89</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -37440,10 +37440,10 @@
         <v>0.3</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU182" t="n">
         <v>1.58</v>
@@ -39064,7 +39064,7 @@
         <v>1.55</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT190" t="n">
         <v>1.69</v>
@@ -39879,7 +39879,7 @@
         <v>1.43</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU194" t="n">
         <v>1.87</v>
@@ -40891,7 +40891,7 @@
         <v>1.75</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT199" t="n">
         <v>2</v>
@@ -41094,7 +41094,7 @@
         <v>0.44</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT200" t="n">
         <v>0.53</v>
@@ -42315,7 +42315,7 @@
         <v>1.13</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU206" t="n">
         <v>1.48</v>
@@ -43939,7 +43939,7 @@
         <v>1.43</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU214" t="n">
         <v>1.85</v>
@@ -44142,7 +44142,7 @@
         <v>2.29</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU215" t="n">
         <v>2.05</v>
@@ -44748,7 +44748,7 @@
         <v>0.73</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT218" t="n">
         <v>0.6</v>
@@ -44951,7 +44951,7 @@
         <v>1.27</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT219" t="n">
         <v>0.93</v>
@@ -46781,7 +46781,7 @@
         <v>2.29</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU228" t="n">
         <v>2</v>
@@ -47793,7 +47793,7 @@
         <v>0.75</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT233" t="n">
         <v>1</v>
@@ -49217,7 +49217,7 @@
         <v>2.05</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU240" t="n">
         <v>1.95</v>
@@ -49623,7 +49623,7 @@
         <v>2.19</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU242" t="n">
         <v>1.97</v>
@@ -49826,7 +49826,7 @@
         <v>1.27</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU243" t="n">
         <v>1.4</v>
@@ -51244,7 +51244,7 @@
         <v>1.71</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT250" t="n">
         <v>1.76</v>
@@ -52056,7 +52056,7 @@
         <v>0.33</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT254" t="n">
         <v>0.57</v>
@@ -53277,7 +53277,7 @@
         <v>1.13</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU260" t="n">
         <v>1.73</v>
@@ -53480,7 +53480,7 @@
         <v>1.27</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU261" t="n">
         <v>1.28</v>
@@ -53680,7 +53680,7 @@
         <v>1.6</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT262" t="n">
         <v>1.47</v>
@@ -55304,7 +55304,7 @@
         <v>0.38</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT270" t="n">
         <v>0.57</v>
@@ -55710,10 +55710,10 @@
         <v>1.47</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AU272" t="n">
         <v>1.65</v>
@@ -59216,6 +59216,412 @@
       </c>
       <c r="BK289" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4661707</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45023.92013888889</v>
+      </c>
+      <c r="F290" t="n">
+        <v>14</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>2</v>
+      </c>
+      <c r="K290" t="n">
+        <v>2</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>2</v>
+      </c>
+      <c r="N290" t="n">
+        <v>3</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['8', '15']</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>3</v>
+      </c>
+      <c r="R290" t="n">
+        <v>4</v>
+      </c>
+      <c r="S290" t="n">
+        <v>7</v>
+      </c>
+      <c r="T290" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X290" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>4661708</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Mexico Liga MX</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45024.00694444445</v>
+      </c>
+      <c r="F291" t="n">
+        <v>14</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1</v>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="n">
+        <v>2</v>
+      </c>
+      <c r="N291" t="n">
+        <v>3</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['32', '56']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>9</v>
+      </c>
+      <c r="R291" t="n">
+        <v>8</v>
+      </c>
+      <c r="S291" t="n">
+        <v>17</v>
+      </c>
+      <c r="T291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V291" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
